--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-307_移行要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-307_移行要件定義(サンプル＆ガイド).xlsx
@@ -3070,16 +3070,6 @@
     <phoneticPr fontId="22"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3288,6 +3278,9 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4382,14 +4375,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4399,6 +4416,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4436,52 +4462,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4493,24 +4492,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4518,6 +4499,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4538,83 +4576,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10436,9 +10429,7 @@
       <c r="G31" s="131"/>
       <c r="H31" s="128"/>
       <c r="J31" s="132"/>
-      <c r="R31" s="133" t="s">
-        <v>231</v>
-      </c>
+      <c r="R31" s="133"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="128"/>
@@ -10478,20 +10469,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="140" t="s">
         <v>232</v>
-      </c>
-      <c r="E39" s="140" t="s">
-        <v>233</v>
       </c>
       <c r="O39" s="137"/>
       <c r="P39" s="137"/>
       <c r="Q39" s="138"/>
       <c r="R39" s="138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S39" s="137"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -10966,7 +10961,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -11011,335 +11006,335 @@
       <c r="B12" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="167" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="170" t="s">
+      <c r="C12" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="171" t="s">
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="171"/>
-      <c r="AD12" s="171"/>
-      <c r="AE12" s="171"/>
-      <c r="AF12" s="171"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="171"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="153"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="153"/>
+      <c r="AH12" s="153"/>
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1">
       <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="172" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175" t="s">
+      <c r="C13" s="154" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="175" t="s">
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="177"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="177"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="158"/>
+      <c r="V13" s="158"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="157"/>
+      <c r="AC13" s="158"/>
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="159"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1">
       <c r="B14" s="141">
         <v>2</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="162"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1">
+      <c r="B15" s="166">
+        <v>3</v>
+      </c>
+      <c r="C15" s="169" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="154"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="155">
-        <v>3</v>
-      </c>
-      <c r="C15" s="158" t="s">
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="161"/>
+      <c r="T15" s="161"/>
+      <c r="U15" s="161"/>
+      <c r="V15" s="161"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="161"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="162"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1">
+      <c r="B16" s="167"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="161"/>
+      <c r="T16" s="161"/>
+      <c r="U16" s="161"/>
+      <c r="V16" s="161"/>
+      <c r="W16" s="161"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="161"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="161"/>
+      <c r="AD16" s="161"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="161"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="162"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1">
+      <c r="B17" s="166">
+        <v>4</v>
+      </c>
+      <c r="C17" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="154"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="156"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="154"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="155">
-        <v>4</v>
-      </c>
-      <c r="C17" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="152" t="s">
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="152" t="s">
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="152"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="154"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="162"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="157"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="152" t="s">
+      <c r="B18" s="168"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="152" t="s">
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="152"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="154"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="162"/>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="156"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="152" t="s">
+      <c r="B19" s="167"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="152" t="s">
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="152"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="154"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="161"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="161"/>
+      <c r="AF19" s="161"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="162"/>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
       <c r="A20" s="78"/>
@@ -11349,7 +11344,7 @@
       <c r="E20" s="142"/>
       <c r="F20" s="142"/>
       <c r="G20" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="142"/>
       <c r="I20" s="142"/>
@@ -11390,13 +11385,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="C17:F19"/>
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="M15:AA15"/>
@@ -11413,13 +11408,13 @@
     <mergeCell ref="M14:AA14"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11730,8 +11725,8 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="219"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -11758,69 +11753,69 @@
     <row r="10" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="220" t="s">
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="217"/>
-      <c r="M10" s="217" t="s">
+      <c r="L10" s="194"/>
+      <c r="M10" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="217"/>
-      <c r="O10" s="217" t="s">
+      <c r="N10" s="194"/>
+      <c r="O10" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="217"/>
-      <c r="Q10" s="217" t="s">
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="R10" s="217"/>
-      <c r="S10" s="220" t="s">
+      <c r="R10" s="194"/>
+      <c r="S10" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217" t="s">
+      <c r="T10" s="194"/>
+      <c r="U10" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217" t="s">
+      <c r="V10" s="194"/>
+      <c r="W10" s="194" t="s">
         <v>108</v>
       </c>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217" t="s">
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217" t="s">
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217" t="s">
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="217" t="s">
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="AF10" s="217"/>
-      <c r="AG10" s="217" t="s">
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="AH10" s="217"/>
-      <c r="AI10" s="217" t="s">
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="AJ10" s="217"/>
-      <c r="AK10" s="217" t="s">
+      <c r="AJ10" s="194"/>
+      <c r="AK10" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="AL10" s="217"/>
+      <c r="AL10" s="194"/>
       <c r="AO10" s="117"/>
     </row>
     <row r="11" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
@@ -11835,34 +11830,34 @@
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="215"/>
-      <c r="S11" s="215"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="215"/>
-      <c r="V11" s="215"/>
-      <c r="W11" s="215"/>
-      <c r="X11" s="215"/>
-      <c r="Y11" s="215"/>
-      <c r="Z11" s="215"/>
-      <c r="AA11" s="215"/>
-      <c r="AB11" s="215"/>
-      <c r="AC11" s="215"/>
-      <c r="AD11" s="215"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="215"/>
-      <c r="AG11" s="215"/>
-      <c r="AH11" s="215"/>
-      <c r="AI11" s="215"/>
-      <c r="AJ11" s="215"/>
-      <c r="AK11" s="215"/>
-      <c r="AL11" s="215"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="201"/>
+      <c r="Y11" s="201"/>
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="201"/>
+      <c r="AC11" s="201"/>
+      <c r="AD11" s="201"/>
+      <c r="AE11" s="201"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="201"/>
+      <c r="AH11" s="201"/>
+      <c r="AI11" s="201"/>
+      <c r="AJ11" s="201"/>
+      <c r="AK11" s="201"/>
+      <c r="AL11" s="201"/>
     </row>
     <row r="12" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="8"/>
@@ -11876,34 +11871,34 @@
       <c r="H12" s="113"/>
       <c r="I12" s="89"/>
       <c r="J12" s="89"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="218"/>
-      <c r="AJ12" s="218"/>
-      <c r="AK12" s="218"/>
-      <c r="AL12" s="218"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="200"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="200"/>
+      <c r="Z12" s="200"/>
+      <c r="AA12" s="200"/>
+      <c r="AB12" s="200"/>
+      <c r="AC12" s="200"/>
+      <c r="AD12" s="200"/>
+      <c r="AE12" s="200"/>
+      <c r="AF12" s="200"/>
+      <c r="AG12" s="200"/>
+      <c r="AH12" s="200"/>
+      <c r="AI12" s="200"/>
+      <c r="AJ12" s="200"/>
+      <c r="AK12" s="200"/>
+      <c r="AL12" s="200"/>
       <c r="AO12" s="117"/>
     </row>
     <row r="13" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
@@ -11918,34 +11913,34 @@
       <c r="H13" s="114"/>
       <c r="I13" s="89"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="216"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="216"/>
-      <c r="S13" s="216"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="216"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="216"/>
-      <c r="AB13" s="216"/>
-      <c r="AC13" s="216"/>
-      <c r="AD13" s="216"/>
-      <c r="AE13" s="216"/>
-      <c r="AF13" s="216"/>
-      <c r="AG13" s="216"/>
-      <c r="AH13" s="216"/>
-      <c r="AI13" s="216"/>
-      <c r="AJ13" s="216"/>
-      <c r="AK13" s="216"/>
-      <c r="AL13" s="216"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="178"/>
+      <c r="AH13" s="178"/>
+      <c r="AI13" s="178"/>
+      <c r="AJ13" s="178"/>
+      <c r="AK13" s="178"/>
+      <c r="AL13" s="178"/>
     </row>
     <row r="14" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="8"/>
@@ -11959,34 +11954,34 @@
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="216"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
-      <c r="U14" s="216"/>
-      <c r="V14" s="216"/>
-      <c r="W14" s="216"/>
-      <c r="X14" s="216"/>
-      <c r="Y14" s="216"/>
-      <c r="Z14" s="216"/>
-      <c r="AA14" s="216"/>
-      <c r="AB14" s="216"/>
-      <c r="AC14" s="216"/>
-      <c r="AD14" s="216"/>
-      <c r="AE14" s="216"/>
-      <c r="AF14" s="216"/>
-      <c r="AG14" s="216"/>
-      <c r="AH14" s="216"/>
-      <c r="AI14" s="216"/>
-      <c r="AJ14" s="216"/>
-      <c r="AK14" s="216"/>
-      <c r="AL14" s="216"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="178"/>
+      <c r="AF14" s="178"/>
+      <c r="AG14" s="178"/>
+      <c r="AH14" s="178"/>
+      <c r="AI14" s="178"/>
+      <c r="AJ14" s="178"/>
+      <c r="AK14" s="178"/>
+      <c r="AL14" s="178"/>
     </row>
     <row r="15" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="8"/>
@@ -12000,34 +11995,34 @@
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="214"/>
-      <c r="Q15" s="214"/>
-      <c r="R15" s="214"/>
-      <c r="S15" s="214"/>
-      <c r="T15" s="214"/>
-      <c r="U15" s="214"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="214"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="214"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="214"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
-      <c r="AD15" s="214"/>
-      <c r="AE15" s="214"/>
-      <c r="AF15" s="214"/>
-      <c r="AG15" s="214"/>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="214"/>
-      <c r="AJ15" s="214"/>
-      <c r="AK15" s="214"/>
-      <c r="AL15" s="214"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="191"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="191"/>
+      <c r="AJ15" s="191"/>
+      <c r="AK15" s="191"/>
+      <c r="AL15" s="191"/>
     </row>
     <row r="16" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="8"/>
@@ -12039,34 +12034,34 @@
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
       <c r="J16" s="91"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="202"/>
-      <c r="Q16" s="201"/>
-      <c r="R16" s="202"/>
-      <c r="S16" s="201"/>
-      <c r="T16" s="202"/>
-      <c r="U16" s="201"/>
-      <c r="V16" s="202"/>
-      <c r="W16" s="201"/>
-      <c r="X16" s="202"/>
-      <c r="Y16" s="201"/>
-      <c r="Z16" s="202"/>
-      <c r="AA16" s="201"/>
-      <c r="AB16" s="202"/>
-      <c r="AC16" s="201"/>
-      <c r="AD16" s="202"/>
-      <c r="AE16" s="201"/>
-      <c r="AF16" s="202"/>
-      <c r="AG16" s="201"/>
-      <c r="AH16" s="202"/>
-      <c r="AI16" s="201"/>
-      <c r="AJ16" s="202"/>
-      <c r="AK16" s="201"/>
-      <c r="AL16" s="202"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="196"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="196"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="196"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="196"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="196"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="196"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="196"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="196"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="196"/>
+      <c r="AG16" s="195"/>
+      <c r="AH16" s="196"/>
+      <c r="AI16" s="195"/>
+      <c r="AJ16" s="196"/>
+      <c r="AK16" s="195"/>
+      <c r="AL16" s="196"/>
     </row>
     <row r="17" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="119"/>
@@ -12922,29 +12917,29 @@
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
-      <c r="N36" s="205" t="s">
+      <c r="N36" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="206"/>
-      <c r="P36" s="206"/>
-      <c r="Q36" s="206"/>
-      <c r="R36" s="206"/>
-      <c r="S36" s="206"/>
-      <c r="T36" s="206"/>
-      <c r="U36" s="206"/>
-      <c r="V36" s="206"/>
-      <c r="W36" s="206"/>
-      <c r="X36" s="206"/>
-      <c r="Y36" s="206"/>
-      <c r="Z36" s="206"/>
-      <c r="AA36" s="206"/>
-      <c r="AB36" s="206"/>
-      <c r="AC36" s="206"/>
-      <c r="AD36" s="206"/>
-      <c r="AE36" s="206"/>
-      <c r="AF36" s="206"/>
-      <c r="AG36" s="206"/>
-      <c r="AH36" s="207"/>
+      <c r="O36" s="198"/>
+      <c r="P36" s="198"/>
+      <c r="Q36" s="198"/>
+      <c r="R36" s="198"/>
+      <c r="S36" s="198"/>
+      <c r="T36" s="198"/>
+      <c r="U36" s="198"/>
+      <c r="V36" s="198"/>
+      <c r="W36" s="198"/>
+      <c r="X36" s="198"/>
+      <c r="Y36" s="198"/>
+      <c r="Z36" s="198"/>
+      <c r="AA36" s="198"/>
+      <c r="AB36" s="198"/>
+      <c r="AC36" s="198"/>
+      <c r="AD36" s="198"/>
+      <c r="AE36" s="198"/>
+      <c r="AF36" s="198"/>
+      <c r="AG36" s="198"/>
+      <c r="AH36" s="199"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="60"/>
       <c r="AK36" s="8"/>
@@ -12962,28 +12957,28 @@
       </c>
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="205" t="s">
+      <c r="I37" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="206"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="206"/>
-      <c r="O37" s="206"/>
-      <c r="P37" s="206"/>
-      <c r="Q37" s="206"/>
-      <c r="R37" s="206"/>
-      <c r="S37" s="206"/>
-      <c r="T37" s="206"/>
-      <c r="U37" s="206"/>
-      <c r="V37" s="206"/>
-      <c r="W37" s="206"/>
-      <c r="X37" s="206"/>
-      <c r="Y37" s="206"/>
-      <c r="Z37" s="206"/>
-      <c r="AA37" s="206"/>
-      <c r="AB37" s="207"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="198"/>
+      <c r="O37" s="198"/>
+      <c r="P37" s="198"/>
+      <c r="Q37" s="198"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="198"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="198"/>
+      <c r="W37" s="198"/>
+      <c r="X37" s="198"/>
+      <c r="Y37" s="198"/>
+      <c r="Z37" s="198"/>
+      <c r="AA37" s="198"/>
+      <c r="AB37" s="199"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43" t="s">
         <v>19</v>
@@ -13017,28 +13012,28 @@
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
       <c r="N38" s="74"/>
-      <c r="O38" s="205" t="s">
+      <c r="O38" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="P38" s="206"/>
-      <c r="Q38" s="206"/>
-      <c r="R38" s="206"/>
-      <c r="S38" s="206"/>
-      <c r="T38" s="206"/>
-      <c r="U38" s="206"/>
-      <c r="V38" s="206"/>
-      <c r="W38" s="206"/>
-      <c r="X38" s="206"/>
-      <c r="Y38" s="206"/>
-      <c r="Z38" s="206"/>
-      <c r="AA38" s="206"/>
-      <c r="AB38" s="206"/>
-      <c r="AC38" s="206"/>
-      <c r="AD38" s="206"/>
-      <c r="AE38" s="206"/>
-      <c r="AF38" s="206"/>
-      <c r="AG38" s="206"/>
-      <c r="AH38" s="207"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="198"/>
+      <c r="T38" s="198"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="198"/>
+      <c r="W38" s="198"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="198"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="198"/>
+      <c r="AE38" s="198"/>
+      <c r="AF38" s="198"/>
+      <c r="AG38" s="198"/>
+      <c r="AH38" s="199"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="60"/>
       <c r="AK38" s="8"/>
@@ -13056,13 +13051,13 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="205" t="s">
+      <c r="I39" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="206"/>
-      <c r="K39" s="206"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="207"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="199"/>
       <c r="N39" s="45"/>
       <c r="O39" s="46" t="s">
         <v>17</v>
@@ -13472,29 +13467,29 @@
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
-      <c r="N48" s="205" t="s">
+      <c r="N48" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="206"/>
-      <c r="P48" s="206"/>
-      <c r="Q48" s="206"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="206"/>
-      <c r="T48" s="206"/>
-      <c r="U48" s="206"/>
-      <c r="V48" s="206"/>
-      <c r="W48" s="206"/>
-      <c r="X48" s="206"/>
-      <c r="Y48" s="206"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="206"/>
-      <c r="AB48" s="206"/>
-      <c r="AC48" s="206"/>
-      <c r="AD48" s="206"/>
-      <c r="AE48" s="206"/>
-      <c r="AF48" s="206"/>
-      <c r="AG48" s="206"/>
-      <c r="AH48" s="207"/>
+      <c r="O48" s="198"/>
+      <c r="P48" s="198"/>
+      <c r="Q48" s="198"/>
+      <c r="R48" s="198"/>
+      <c r="S48" s="198"/>
+      <c r="T48" s="198"/>
+      <c r="U48" s="198"/>
+      <c r="V48" s="198"/>
+      <c r="W48" s="198"/>
+      <c r="X48" s="198"/>
+      <c r="Y48" s="198"/>
+      <c r="Z48" s="198"/>
+      <c r="AA48" s="198"/>
+      <c r="AB48" s="198"/>
+      <c r="AC48" s="198"/>
+      <c r="AD48" s="198"/>
+      <c r="AE48" s="198"/>
+      <c r="AF48" s="198"/>
+      <c r="AG48" s="198"/>
+      <c r="AH48" s="199"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="60"/>
       <c r="AK48" s="8"/>
@@ -13512,36 +13507,36 @@
       </c>
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
-      <c r="I49" s="205" t="s">
+      <c r="I49" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="206"/>
-      <c r="K49" s="206"/>
-      <c r="L49" s="206"/>
-      <c r="M49" s="206"/>
-      <c r="N49" s="206"/>
-      <c r="O49" s="206"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="206"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="206"/>
-      <c r="T49" s="206"/>
-      <c r="U49" s="206"/>
-      <c r="V49" s="206"/>
-      <c r="W49" s="206"/>
-      <c r="X49" s="206"/>
-      <c r="Y49" s="206"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="206"/>
-      <c r="AB49" s="207"/>
-      <c r="AC49" s="205" t="s">
+      <c r="J49" s="198"/>
+      <c r="K49" s="198"/>
+      <c r="L49" s="198"/>
+      <c r="M49" s="198"/>
+      <c r="N49" s="198"/>
+      <c r="O49" s="198"/>
+      <c r="P49" s="198"/>
+      <c r="Q49" s="198"/>
+      <c r="R49" s="198"/>
+      <c r="S49" s="198"/>
+      <c r="T49" s="198"/>
+      <c r="U49" s="198"/>
+      <c r="V49" s="198"/>
+      <c r="W49" s="198"/>
+      <c r="X49" s="198"/>
+      <c r="Y49" s="198"/>
+      <c r="Z49" s="198"/>
+      <c r="AA49" s="198"/>
+      <c r="AB49" s="199"/>
+      <c r="AC49" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="AD49" s="206"/>
-      <c r="AE49" s="206"/>
-      <c r="AF49" s="206"/>
-      <c r="AG49" s="206"/>
-      <c r="AH49" s="207"/>
+      <c r="AD49" s="198"/>
+      <c r="AE49" s="198"/>
+      <c r="AF49" s="198"/>
+      <c r="AG49" s="198"/>
+      <c r="AH49" s="199"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="60"/>
       <c r="AK49" s="8"/>
@@ -13559,38 +13554,38 @@
       </c>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
-      <c r="I50" s="205" t="s">
+      <c r="I50" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="206"/>
-      <c r="K50" s="206"/>
-      <c r="L50" s="206"/>
-      <c r="M50" s="206"/>
-      <c r="N50" s="207"/>
-      <c r="O50" s="205" t="s">
+      <c r="J50" s="198"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="198"/>
+      <c r="N50" s="199"/>
+      <c r="O50" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="P50" s="206"/>
-      <c r="Q50" s="206"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="206"/>
-      <c r="T50" s="206"/>
-      <c r="U50" s="206"/>
-      <c r="V50" s="206"/>
-      <c r="W50" s="206"/>
-      <c r="X50" s="206"/>
-      <c r="Y50" s="206"/>
-      <c r="Z50" s="207"/>
-      <c r="AA50" s="205" t="s">
+      <c r="P50" s="198"/>
+      <c r="Q50" s="198"/>
+      <c r="R50" s="198"/>
+      <c r="S50" s="198"/>
+      <c r="T50" s="198"/>
+      <c r="U50" s="198"/>
+      <c r="V50" s="198"/>
+      <c r="W50" s="198"/>
+      <c r="X50" s="198"/>
+      <c r="Y50" s="198"/>
+      <c r="Z50" s="199"/>
+      <c r="AA50" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="AB50" s="206"/>
-      <c r="AC50" s="206"/>
-      <c r="AD50" s="206"/>
-      <c r="AE50" s="206"/>
-      <c r="AF50" s="206"/>
-      <c r="AG50" s="206"/>
-      <c r="AH50" s="207"/>
+      <c r="AB50" s="198"/>
+      <c r="AC50" s="198"/>
+      <c r="AD50" s="198"/>
+      <c r="AE50" s="198"/>
+      <c r="AF50" s="198"/>
+      <c r="AG50" s="198"/>
+      <c r="AH50" s="199"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="60"/>
       <c r="AK50" s="8"/>
@@ -13603,18 +13598,18 @@
       <c r="C51" s="10"/>
       <c r="D51" s="14"/>
       <c r="E51" s="67"/>
-      <c r="F51" s="203" t="s">
+      <c r="F51" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="203"/>
-      <c r="H51" s="204"/>
-      <c r="I51" s="205" t="s">
+      <c r="G51" s="205"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="206"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="207"/>
+      <c r="J51" s="198"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="199"/>
       <c r="N51" s="45"/>
       <c r="O51" s="46" t="s">
         <v>17</v>
@@ -13652,16 +13647,16 @@
       <c r="C52" s="10"/>
       <c r="D52" s="14"/>
       <c r="E52" s="67"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="205" t="s">
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="206"/>
-      <c r="K52" s="206"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="207"/>
+      <c r="J52" s="198"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="198"/>
+      <c r="M52" s="199"/>
       <c r="N52" s="45"/>
       <c r="O52" s="46" t="s">
         <v>98</v>
@@ -15597,7 +15592,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -17128,33 +17123,33 @@
       <c r="B134" s="8"/>
       <c r="C134" s="10"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="221" t="s">
+      <c r="E134" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="F134" s="222"/>
-      <c r="G134" s="222"/>
-      <c r="H134" s="222"/>
-      <c r="I134" s="222"/>
-      <c r="J134" s="222"/>
-      <c r="K134" s="222"/>
-      <c r="L134" s="222"/>
-      <c r="M134" s="222"/>
-      <c r="N134" s="222"/>
-      <c r="O134" s="222"/>
-      <c r="P134" s="223"/>
-      <c r="Q134" s="192" t="s">
+      <c r="F134" s="180"/>
+      <c r="G134" s="180"/>
+      <c r="H134" s="180"/>
+      <c r="I134" s="180"/>
+      <c r="J134" s="180"/>
+      <c r="K134" s="180"/>
+      <c r="L134" s="180"/>
+      <c r="M134" s="180"/>
+      <c r="N134" s="180"/>
+      <c r="O134" s="180"/>
+      <c r="P134" s="181"/>
+      <c r="Q134" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="R134" s="193"/>
-      <c r="S134" s="193"/>
-      <c r="T134" s="193"/>
-      <c r="U134" s="193"/>
-      <c r="V134" s="194"/>
-      <c r="W134" s="221" t="s">
+      <c r="R134" s="189"/>
+      <c r="S134" s="189"/>
+      <c r="T134" s="189"/>
+      <c r="U134" s="189"/>
+      <c r="V134" s="190"/>
+      <c r="W134" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="X134" s="222"/>
-      <c r="Y134" s="223"/>
+      <c r="X134" s="180"/>
+      <c r="Y134" s="181"/>
       <c r="Z134" s="96"/>
       <c r="AA134" s="96"/>
       <c r="AB134" s="51"/>
@@ -17172,31 +17167,31 @@
       <c r="B135" s="8"/>
       <c r="C135" s="10"/>
       <c r="D135" s="14"/>
-      <c r="E135" s="224"/>
-      <c r="F135" s="225"/>
-      <c r="G135" s="225"/>
-      <c r="H135" s="225"/>
-      <c r="I135" s="225"/>
-      <c r="J135" s="225"/>
-      <c r="K135" s="225"/>
-      <c r="L135" s="225"/>
-      <c r="M135" s="225"/>
-      <c r="N135" s="225"/>
-      <c r="O135" s="225"/>
-      <c r="P135" s="226"/>
-      <c r="Q135" s="208" t="s">
+      <c r="E135" s="182"/>
+      <c r="F135" s="183"/>
+      <c r="G135" s="183"/>
+      <c r="H135" s="183"/>
+      <c r="I135" s="183"/>
+      <c r="J135" s="183"/>
+      <c r="K135" s="183"/>
+      <c r="L135" s="183"/>
+      <c r="M135" s="183"/>
+      <c r="N135" s="183"/>
+      <c r="O135" s="183"/>
+      <c r="P135" s="184"/>
+      <c r="Q135" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="R135" s="209"/>
-      <c r="S135" s="210"/>
-      <c r="T135" s="192" t="s">
+      <c r="R135" s="208"/>
+      <c r="S135" s="209"/>
+      <c r="T135" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="U135" s="209"/>
-      <c r="V135" s="210"/>
-      <c r="W135" s="224"/>
-      <c r="X135" s="225"/>
-      <c r="Y135" s="226"/>
+      <c r="U135" s="208"/>
+      <c r="V135" s="209"/>
+      <c r="W135" s="182"/>
+      <c r="X135" s="183"/>
+      <c r="Y135" s="184"/>
       <c r="Z135" s="96"/>
       <c r="AA135" s="96"/>
       <c r="AB135" s="51"/>
@@ -17227,19 +17222,19 @@
       <c r="N136" s="98"/>
       <c r="O136" s="98"/>
       <c r="P136" s="99"/>
-      <c r="Q136" s="183" t="s">
+      <c r="Q136" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="R136" s="184"/>
-      <c r="S136" s="185"/>
-      <c r="T136" s="183"/>
-      <c r="U136" s="184"/>
-      <c r="V136" s="185"/>
-      <c r="W136" s="183" t="s">
+      <c r="R136" s="186"/>
+      <c r="S136" s="187"/>
+      <c r="T136" s="185"/>
+      <c r="U136" s="186"/>
+      <c r="V136" s="187"/>
+      <c r="W136" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="X136" s="184"/>
-      <c r="Y136" s="185"/>
+      <c r="X136" s="186"/>
+      <c r="Y136" s="187"/>
       <c r="Z136" s="96"/>
       <c r="AA136" s="96"/>
       <c r="AB136" s="51"/>
@@ -17269,19 +17264,19 @@
       <c r="N137" s="98"/>
       <c r="O137" s="98"/>
       <c r="P137" s="99"/>
-      <c r="Q137" s="183"/>
-      <c r="R137" s="184"/>
-      <c r="S137" s="185"/>
-      <c r="T137" s="183" t="s">
+      <c r="Q137" s="185"/>
+      <c r="R137" s="186"/>
+      <c r="S137" s="187"/>
+      <c r="T137" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="U137" s="184"/>
-      <c r="V137" s="185"/>
-      <c r="W137" s="183" t="s">
+      <c r="U137" s="186"/>
+      <c r="V137" s="187"/>
+      <c r="W137" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="X137" s="184"/>
-      <c r="Y137" s="185"/>
+      <c r="X137" s="186"/>
+      <c r="Y137" s="187"/>
       <c r="Z137" s="96"/>
       <c r="AA137" s="96"/>
       <c r="AB137" s="51"/>
@@ -17316,19 +17311,19 @@
       <c r="N138" s="98"/>
       <c r="O138" s="98"/>
       <c r="P138" s="99"/>
-      <c r="Q138" s="183" t="s">
+      <c r="Q138" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="R138" s="184"/>
-      <c r="S138" s="185"/>
-      <c r="T138" s="183"/>
-      <c r="U138" s="184"/>
-      <c r="V138" s="185"/>
-      <c r="W138" s="183" t="s">
+      <c r="R138" s="186"/>
+      <c r="S138" s="187"/>
+      <c r="T138" s="185"/>
+      <c r="U138" s="186"/>
+      <c r="V138" s="187"/>
+      <c r="W138" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="X138" s="184"/>
-      <c r="Y138" s="185"/>
+      <c r="X138" s="186"/>
+      <c r="Y138" s="187"/>
       <c r="Z138" s="96"/>
       <c r="AA138" s="96"/>
       <c r="AB138" s="51"/>
@@ -17363,19 +17358,19 @@
       <c r="N139" s="98"/>
       <c r="O139" s="98"/>
       <c r="P139" s="99"/>
-      <c r="Q139" s="183" t="s">
+      <c r="Q139" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="R139" s="184"/>
-      <c r="S139" s="185"/>
-      <c r="T139" s="183"/>
-      <c r="U139" s="184"/>
-      <c r="V139" s="185"/>
-      <c r="W139" s="183" t="s">
+      <c r="R139" s="186"/>
+      <c r="S139" s="187"/>
+      <c r="T139" s="185"/>
+      <c r="U139" s="186"/>
+      <c r="V139" s="187"/>
+      <c r="W139" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="X139" s="184"/>
-      <c r="Y139" s="185"/>
+      <c r="X139" s="186"/>
+      <c r="Y139" s="187"/>
       <c r="Z139" s="96"/>
       <c r="AA139" s="96"/>
       <c r="AB139" s="51"/>
@@ -17410,19 +17405,19 @@
       <c r="N140" s="98"/>
       <c r="O140" s="98"/>
       <c r="P140" s="99"/>
-      <c r="Q140" s="183" t="s">
+      <c r="Q140" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="R140" s="184"/>
-      <c r="S140" s="185"/>
-      <c r="T140" s="183"/>
-      <c r="U140" s="184"/>
-      <c r="V140" s="185"/>
-      <c r="W140" s="183" t="s">
+      <c r="R140" s="186"/>
+      <c r="S140" s="187"/>
+      <c r="T140" s="185"/>
+      <c r="U140" s="186"/>
+      <c r="V140" s="187"/>
+      <c r="W140" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="X140" s="184"/>
-      <c r="Y140" s="185"/>
+      <c r="X140" s="186"/>
+      <c r="Y140" s="187"/>
       <c r="Z140" s="96"/>
       <c r="AA140" s="96"/>
       <c r="AB140" s="51"/>
@@ -17457,19 +17452,19 @@
       <c r="N141" s="98"/>
       <c r="O141" s="98"/>
       <c r="P141" s="99"/>
-      <c r="Q141" s="183" t="s">
+      <c r="Q141" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="R141" s="184"/>
-      <c r="S141" s="185"/>
-      <c r="T141" s="183" t="s">
+      <c r="R141" s="186"/>
+      <c r="S141" s="187"/>
+      <c r="T141" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="U141" s="184"/>
-      <c r="V141" s="185"/>
-      <c r="W141" s="183"/>
-      <c r="X141" s="184"/>
-      <c r="Y141" s="185"/>
+      <c r="U141" s="186"/>
+      <c r="V141" s="187"/>
+      <c r="W141" s="185"/>
+      <c r="X141" s="186"/>
+      <c r="Y141" s="187"/>
       <c r="Z141" s="96"/>
       <c r="AA141" s="96"/>
       <c r="AB141" s="51"/>
@@ -17504,19 +17499,19 @@
       <c r="N142" s="98"/>
       <c r="O142" s="98"/>
       <c r="P142" s="99"/>
-      <c r="Q142" s="183" t="s">
+      <c r="Q142" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="R142" s="184"/>
-      <c r="S142" s="185"/>
-      <c r="T142" s="183"/>
-      <c r="U142" s="184"/>
-      <c r="V142" s="185"/>
-      <c r="W142" s="183" t="s">
+      <c r="R142" s="186"/>
+      <c r="S142" s="187"/>
+      <c r="T142" s="185"/>
+      <c r="U142" s="186"/>
+      <c r="V142" s="187"/>
+      <c r="W142" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="X142" s="184"/>
-      <c r="Y142" s="185"/>
+      <c r="X142" s="186"/>
+      <c r="Y142" s="187"/>
       <c r="Z142" s="96"/>
       <c r="AA142" s="96"/>
       <c r="AB142" s="51"/>
@@ -17550,21 +17545,21 @@
       <c r="N143" s="98"/>
       <c r="O143" s="98"/>
       <c r="P143" s="99"/>
-      <c r="Q143" s="183" t="s">
+      <c r="Q143" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="R143" s="184"/>
-      <c r="S143" s="185"/>
-      <c r="T143" s="183" t="s">
+      <c r="R143" s="186"/>
+      <c r="S143" s="187"/>
+      <c r="T143" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="U143" s="184"/>
-      <c r="V143" s="185"/>
-      <c r="W143" s="183" t="s">
+      <c r="U143" s="186"/>
+      <c r="V143" s="187"/>
+      <c r="W143" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="X143" s="184"/>
-      <c r="Y143" s="185"/>
+      <c r="X143" s="186"/>
+      <c r="Y143" s="187"/>
       <c r="Z143" s="96"/>
       <c r="AA143" s="96"/>
       <c r="AB143" s="51"/>
@@ -17576,15 +17571,15 @@
       <c r="AH143" s="123"/>
       <c r="AI143" s="123"/>
       <c r="AJ143" s="123"/>
-      <c r="AK143" s="178"/>
-      <c r="AL143" s="178"/>
-      <c r="AM143" s="178"/>
-      <c r="AN143" s="178"/>
-      <c r="AO143" s="178"/>
-      <c r="AP143" s="178"/>
-      <c r="AQ143" s="178"/>
-      <c r="AR143" s="178"/>
-      <c r="AS143" s="178"/>
+      <c r="AK143" s="219"/>
+      <c r="AL143" s="219"/>
+      <c r="AM143" s="219"/>
+      <c r="AN143" s="219"/>
+      <c r="AO143" s="219"/>
+      <c r="AP143" s="219"/>
+      <c r="AQ143" s="219"/>
+      <c r="AR143" s="219"/>
+      <c r="AS143" s="219"/>
     </row>
     <row r="144" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A144" s="8"/>
@@ -17605,21 +17600,21 @@
       <c r="N144" s="98"/>
       <c r="O144" s="98"/>
       <c r="P144" s="99"/>
-      <c r="Q144" s="183" t="s">
+      <c r="Q144" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="R144" s="184"/>
-      <c r="S144" s="185"/>
-      <c r="T144" s="183" t="s">
+      <c r="R144" s="186"/>
+      <c r="S144" s="187"/>
+      <c r="T144" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="U144" s="184"/>
-      <c r="V144" s="185"/>
-      <c r="W144" s="183" t="s">
+      <c r="U144" s="186"/>
+      <c r="V144" s="187"/>
+      <c r="W144" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="X144" s="184"/>
-      <c r="Y144" s="185"/>
+      <c r="X144" s="186"/>
+      <c r="Y144" s="187"/>
       <c r="Z144" s="96"/>
       <c r="AA144" s="96"/>
       <c r="AB144" s="51"/>
@@ -17650,21 +17645,21 @@
       <c r="N145" s="124"/>
       <c r="O145" s="124"/>
       <c r="P145" s="124"/>
-      <c r="Q145" s="183" t="s">
+      <c r="Q145" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="R145" s="184"/>
-      <c r="S145" s="185"/>
-      <c r="T145" s="183" t="s">
+      <c r="R145" s="186"/>
+      <c r="S145" s="187"/>
+      <c r="T145" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="U145" s="184"/>
-      <c r="V145" s="185"/>
-      <c r="W145" s="183" t="s">
+      <c r="U145" s="186"/>
+      <c r="V145" s="187"/>
+      <c r="W145" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="X145" s="184"/>
-      <c r="Y145" s="185"/>
+      <c r="X145" s="186"/>
+      <c r="Y145" s="187"/>
       <c r="Z145" s="123"/>
       <c r="AA145" s="123"/>
       <c r="AB145" s="122"/>
@@ -18335,41 +18330,41 @@
       <c r="E161" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="F161" s="182" t="s">
+      <c r="F161" s="220" t="s">
         <v>173</v>
       </c>
-      <c r="G161" s="182"/>
-      <c r="H161" s="182"/>
-      <c r="I161" s="182"/>
-      <c r="J161" s="182"/>
-      <c r="K161" s="182"/>
-      <c r="L161" s="182"/>
-      <c r="M161" s="182"/>
-      <c r="N161" s="182"/>
-      <c r="O161" s="182"/>
-      <c r="P161" s="182"/>
-      <c r="Q161" s="182"/>
-      <c r="R161" s="182"/>
-      <c r="S161" s="182" t="s">
+      <c r="G161" s="220"/>
+      <c r="H161" s="220"/>
+      <c r="I161" s="220"/>
+      <c r="J161" s="220"/>
+      <c r="K161" s="220"/>
+      <c r="L161" s="220"/>
+      <c r="M161" s="220"/>
+      <c r="N161" s="220"/>
+      <c r="O161" s="220"/>
+      <c r="P161" s="220"/>
+      <c r="Q161" s="220"/>
+      <c r="R161" s="220"/>
+      <c r="S161" s="220" t="s">
         <v>174</v>
       </c>
-      <c r="T161" s="182"/>
-      <c r="U161" s="182"/>
-      <c r="V161" s="182"/>
-      <c r="W161" s="182"/>
-      <c r="X161" s="182"/>
-      <c r="Y161" s="182"/>
-      <c r="Z161" s="182"/>
-      <c r="AA161" s="182"/>
-      <c r="AB161" s="182"/>
-      <c r="AC161" s="182"/>
-      <c r="AD161" s="182"/>
-      <c r="AE161" s="182"/>
-      <c r="AF161" s="182"/>
-      <c r="AG161" s="182"/>
-      <c r="AH161" s="182"/>
-      <c r="AI161" s="182"/>
-      <c r="AJ161" s="182"/>
+      <c r="T161" s="220"/>
+      <c r="U161" s="220"/>
+      <c r="V161" s="220"/>
+      <c r="W161" s="220"/>
+      <c r="X161" s="220"/>
+      <c r="Y161" s="220"/>
+      <c r="Z161" s="220"/>
+      <c r="AA161" s="220"/>
+      <c r="AB161" s="220"/>
+      <c r="AC161" s="220"/>
+      <c r="AD161" s="220"/>
+      <c r="AE161" s="220"/>
+      <c r="AF161" s="220"/>
+      <c r="AG161" s="220"/>
+      <c r="AH161" s="220"/>
+      <c r="AI161" s="220"/>
+      <c r="AJ161" s="220"/>
       <c r="AK161" s="8"/>
       <c r="AL161" s="8"/>
       <c r="AM161" s="8"/>
@@ -18382,41 +18377,41 @@
       <c r="E162" s="108">
         <v>1</v>
       </c>
-      <c r="F162" s="186" t="s">
+      <c r="F162" s="221" t="s">
         <v>210</v>
       </c>
-      <c r="G162" s="186"/>
-      <c r="H162" s="186"/>
-      <c r="I162" s="186"/>
-      <c r="J162" s="186"/>
-      <c r="K162" s="186"/>
-      <c r="L162" s="186"/>
-      <c r="M162" s="186"/>
-      <c r="N162" s="186"/>
-      <c r="O162" s="186"/>
-      <c r="P162" s="186"/>
-      <c r="Q162" s="186"/>
-      <c r="R162" s="186"/>
-      <c r="S162" s="187" t="s">
+      <c r="G162" s="221"/>
+      <c r="H162" s="221"/>
+      <c r="I162" s="221"/>
+      <c r="J162" s="221"/>
+      <c r="K162" s="221"/>
+      <c r="L162" s="221"/>
+      <c r="M162" s="221"/>
+      <c r="N162" s="221"/>
+      <c r="O162" s="221"/>
+      <c r="P162" s="221"/>
+      <c r="Q162" s="221"/>
+      <c r="R162" s="221"/>
+      <c r="S162" s="222" t="s">
         <v>177</v>
       </c>
-      <c r="T162" s="187"/>
-      <c r="U162" s="187"/>
-      <c r="V162" s="187"/>
-      <c r="W162" s="187"/>
-      <c r="X162" s="187"/>
-      <c r="Y162" s="187"/>
-      <c r="Z162" s="187"/>
-      <c r="AA162" s="187"/>
-      <c r="AB162" s="187"/>
-      <c r="AC162" s="187"/>
-      <c r="AD162" s="187"/>
-      <c r="AE162" s="187"/>
-      <c r="AF162" s="187"/>
-      <c r="AG162" s="187"/>
-      <c r="AH162" s="187"/>
-      <c r="AI162" s="187"/>
-      <c r="AJ162" s="187"/>
+      <c r="T162" s="222"/>
+      <c r="U162" s="222"/>
+      <c r="V162" s="222"/>
+      <c r="W162" s="222"/>
+      <c r="X162" s="222"/>
+      <c r="Y162" s="222"/>
+      <c r="Z162" s="222"/>
+      <c r="AA162" s="222"/>
+      <c r="AB162" s="222"/>
+      <c r="AC162" s="222"/>
+      <c r="AD162" s="222"/>
+      <c r="AE162" s="222"/>
+      <c r="AF162" s="222"/>
+      <c r="AG162" s="222"/>
+      <c r="AH162" s="222"/>
+      <c r="AI162" s="222"/>
+      <c r="AJ162" s="222"/>
       <c r="AK162" s="8"/>
       <c r="AL162" s="8"/>
       <c r="AM162" s="8"/>
@@ -18429,41 +18424,41 @@
       <c r="E163" s="108">
         <v>2</v>
       </c>
-      <c r="F163" s="186" t="s">
+      <c r="F163" s="221" t="s">
         <v>176</v>
       </c>
-      <c r="G163" s="186"/>
-      <c r="H163" s="186"/>
-      <c r="I163" s="186"/>
-      <c r="J163" s="186"/>
-      <c r="K163" s="186"/>
-      <c r="L163" s="186"/>
-      <c r="M163" s="186"/>
-      <c r="N163" s="186"/>
-      <c r="O163" s="186"/>
-      <c r="P163" s="186"/>
-      <c r="Q163" s="186"/>
-      <c r="R163" s="186"/>
-      <c r="S163" s="187" t="s">
+      <c r="G163" s="221"/>
+      <c r="H163" s="221"/>
+      <c r="I163" s="221"/>
+      <c r="J163" s="221"/>
+      <c r="K163" s="221"/>
+      <c r="L163" s="221"/>
+      <c r="M163" s="221"/>
+      <c r="N163" s="221"/>
+      <c r="O163" s="221"/>
+      <c r="P163" s="221"/>
+      <c r="Q163" s="221"/>
+      <c r="R163" s="221"/>
+      <c r="S163" s="222" t="s">
         <v>178</v>
       </c>
-      <c r="T163" s="188"/>
-      <c r="U163" s="188"/>
-      <c r="V163" s="188"/>
-      <c r="W163" s="188"/>
-      <c r="X163" s="188"/>
-      <c r="Y163" s="188"/>
-      <c r="Z163" s="188"/>
-      <c r="AA163" s="188"/>
-      <c r="AB163" s="188"/>
-      <c r="AC163" s="188"/>
-      <c r="AD163" s="188"/>
-      <c r="AE163" s="188"/>
-      <c r="AF163" s="188"/>
-      <c r="AG163" s="188"/>
-      <c r="AH163" s="188"/>
-      <c r="AI163" s="188"/>
-      <c r="AJ163" s="188"/>
+      <c r="T163" s="223"/>
+      <c r="U163" s="223"/>
+      <c r="V163" s="223"/>
+      <c r="W163" s="223"/>
+      <c r="X163" s="223"/>
+      <c r="Y163" s="223"/>
+      <c r="Z163" s="223"/>
+      <c r="AA163" s="223"/>
+      <c r="AB163" s="223"/>
+      <c r="AC163" s="223"/>
+      <c r="AD163" s="223"/>
+      <c r="AE163" s="223"/>
+      <c r="AF163" s="223"/>
+      <c r="AG163" s="223"/>
+      <c r="AH163" s="223"/>
+      <c r="AI163" s="223"/>
+      <c r="AJ163" s="223"/>
       <c r="AK163" s="8"/>
       <c r="AL163" s="8"/>
       <c r="AM163" s="8"/>
@@ -18476,41 +18471,41 @@
       <c r="E164" s="108">
         <v>3</v>
       </c>
-      <c r="F164" s="186" t="s">
+      <c r="F164" s="221" t="s">
         <v>175</v>
       </c>
-      <c r="G164" s="186"/>
-      <c r="H164" s="186"/>
-      <c r="I164" s="186"/>
-      <c r="J164" s="186"/>
-      <c r="K164" s="186"/>
-      <c r="L164" s="186"/>
-      <c r="M164" s="186"/>
-      <c r="N164" s="186"/>
-      <c r="O164" s="186"/>
-      <c r="P164" s="186"/>
-      <c r="Q164" s="186"/>
-      <c r="R164" s="186"/>
-      <c r="S164" s="189" t="s">
+      <c r="G164" s="221"/>
+      <c r="H164" s="221"/>
+      <c r="I164" s="221"/>
+      <c r="J164" s="221"/>
+      <c r="K164" s="221"/>
+      <c r="L164" s="221"/>
+      <c r="M164" s="221"/>
+      <c r="N164" s="221"/>
+      <c r="O164" s="221"/>
+      <c r="P164" s="221"/>
+      <c r="Q164" s="221"/>
+      <c r="R164" s="221"/>
+      <c r="S164" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="T164" s="190"/>
-      <c r="U164" s="190"/>
-      <c r="V164" s="190"/>
-      <c r="W164" s="190"/>
-      <c r="X164" s="190"/>
-      <c r="Y164" s="190"/>
-      <c r="Z164" s="190"/>
-      <c r="AA164" s="190"/>
-      <c r="AB164" s="190"/>
-      <c r="AC164" s="190"/>
-      <c r="AD164" s="190"/>
-      <c r="AE164" s="190"/>
-      <c r="AF164" s="190"/>
-      <c r="AG164" s="190"/>
-      <c r="AH164" s="190"/>
-      <c r="AI164" s="190"/>
-      <c r="AJ164" s="191"/>
+      <c r="T164" s="225"/>
+      <c r="U164" s="225"/>
+      <c r="V164" s="225"/>
+      <c r="W164" s="225"/>
+      <c r="X164" s="225"/>
+      <c r="Y164" s="225"/>
+      <c r="Z164" s="225"/>
+      <c r="AA164" s="225"/>
+      <c r="AB164" s="225"/>
+      <c r="AC164" s="225"/>
+      <c r="AD164" s="225"/>
+      <c r="AE164" s="225"/>
+      <c r="AF164" s="225"/>
+      <c r="AG164" s="225"/>
+      <c r="AH164" s="225"/>
+      <c r="AI164" s="225"/>
+      <c r="AJ164" s="226"/>
       <c r="AK164" s="8"/>
       <c r="AL164" s="8"/>
       <c r="AM164" s="8"/>
@@ -19062,28 +19057,28 @@
       <c r="A178" s="8"/>
       <c r="B178" s="119"/>
       <c r="C178" s="120"/>
-      <c r="D178" s="195" t="s">
+      <c r="D178" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="E178" s="196"/>
-      <c r="F178" s="196"/>
-      <c r="G178" s="196"/>
-      <c r="H178" s="196"/>
-      <c r="I178" s="196"/>
-      <c r="J178" s="197"/>
-      <c r="K178" s="192" t="s">
+      <c r="E178" s="211"/>
+      <c r="F178" s="211"/>
+      <c r="G178" s="211"/>
+      <c r="H178" s="211"/>
+      <c r="I178" s="211"/>
+      <c r="J178" s="212"/>
+      <c r="K178" s="188" t="s">
         <v>228</v>
       </c>
-      <c r="L178" s="193"/>
-      <c r="M178" s="193"/>
-      <c r="N178" s="193"/>
-      <c r="O178" s="193"/>
-      <c r="P178" s="194"/>
-      <c r="Q178" s="195" t="s">
+      <c r="L178" s="189"/>
+      <c r="M178" s="189"/>
+      <c r="N178" s="189"/>
+      <c r="O178" s="189"/>
+      <c r="P178" s="190"/>
+      <c r="Q178" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="R178" s="196"/>
-      <c r="S178" s="197"/>
+      <c r="R178" s="211"/>
+      <c r="S178" s="212"/>
       <c r="T178" s="122"/>
       <c r="U178" s="122"/>
       <c r="V178" s="122"/>
@@ -19110,26 +19105,26 @@
       <c r="A179" s="8"/>
       <c r="B179" s="119"/>
       <c r="C179" s="120"/>
-      <c r="D179" s="198"/>
-      <c r="E179" s="199"/>
-      <c r="F179" s="199"/>
-      <c r="G179" s="199"/>
-      <c r="H179" s="199"/>
-      <c r="I179" s="199"/>
-      <c r="J179" s="200"/>
-      <c r="K179" s="192" t="s">
+      <c r="D179" s="213"/>
+      <c r="E179" s="214"/>
+      <c r="F179" s="214"/>
+      <c r="G179" s="214"/>
+      <c r="H179" s="214"/>
+      <c r="I179" s="214"/>
+      <c r="J179" s="215"/>
+      <c r="K179" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="L179" s="193"/>
-      <c r="M179" s="194"/>
-      <c r="N179" s="192" t="s">
+      <c r="L179" s="189"/>
+      <c r="M179" s="190"/>
+      <c r="N179" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="O179" s="193"/>
-      <c r="P179" s="194"/>
-      <c r="Q179" s="198"/>
-      <c r="R179" s="199"/>
-      <c r="S179" s="200"/>
+      <c r="O179" s="189"/>
+      <c r="P179" s="190"/>
+      <c r="Q179" s="213"/>
+      <c r="R179" s="214"/>
+      <c r="S179" s="215"/>
       <c r="T179" s="122"/>
       <c r="U179" s="122"/>
       <c r="V179" s="122"/>
@@ -19164,21 +19159,21 @@
       <c r="H180" s="145"/>
       <c r="I180" s="145"/>
       <c r="J180" s="146"/>
-      <c r="K180" s="179" t="s">
+      <c r="K180" s="216" t="s">
         <v>196</v>
       </c>
-      <c r="L180" s="180"/>
-      <c r="M180" s="181"/>
-      <c r="N180" s="179" t="s">
+      <c r="L180" s="217"/>
+      <c r="M180" s="218"/>
+      <c r="N180" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="O180" s="180"/>
-      <c r="P180" s="181"/>
-      <c r="Q180" s="179" t="s">
+      <c r="O180" s="217"/>
+      <c r="P180" s="218"/>
+      <c r="Q180" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="R180" s="180"/>
-      <c r="S180" s="181"/>
+      <c r="R180" s="217"/>
+      <c r="S180" s="218"/>
       <c r="T180" s="122"/>
       <c r="U180" s="144" t="s">
         <v>27</v>
@@ -19219,19 +19214,19 @@
       <c r="H181" s="145"/>
       <c r="I181" s="145"/>
       <c r="J181" s="146"/>
-      <c r="K181" s="179" t="s">
+      <c r="K181" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="L181" s="180"/>
-      <c r="M181" s="181"/>
-      <c r="N181" s="179"/>
-      <c r="O181" s="180"/>
-      <c r="P181" s="181"/>
-      <c r="Q181" s="179" t="s">
+      <c r="L181" s="217"/>
+      <c r="M181" s="218"/>
+      <c r="N181" s="216"/>
+      <c r="O181" s="217"/>
+      <c r="P181" s="218"/>
+      <c r="Q181" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="R181" s="180"/>
-      <c r="S181" s="181"/>
+      <c r="R181" s="217"/>
+      <c r="S181" s="218"/>
       <c r="T181" s="122"/>
       <c r="U181" s="144"/>
       <c r="V181" s="144"/>
@@ -19268,19 +19263,19 @@
       <c r="H182" s="145"/>
       <c r="I182" s="145"/>
       <c r="J182" s="146"/>
-      <c r="K182" s="179" t="s">
+      <c r="K182" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="L182" s="180"/>
-      <c r="M182" s="181"/>
-      <c r="N182" s="179"/>
-      <c r="O182" s="180"/>
-      <c r="P182" s="181"/>
-      <c r="Q182" s="179" t="s">
+      <c r="L182" s="217"/>
+      <c r="M182" s="218"/>
+      <c r="N182" s="216"/>
+      <c r="O182" s="217"/>
+      <c r="P182" s="218"/>
+      <c r="Q182" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="R182" s="180"/>
-      <c r="S182" s="181"/>
+      <c r="R182" s="217"/>
+      <c r="S182" s="218"/>
       <c r="T182" s="122"/>
       <c r="U182" s="122"/>
       <c r="V182" s="122"/>
@@ -19315,19 +19310,19 @@
       <c r="H183" s="145"/>
       <c r="I183" s="145"/>
       <c r="J183" s="146"/>
-      <c r="K183" s="179" t="s">
+      <c r="K183" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="L183" s="180"/>
-      <c r="M183" s="181"/>
-      <c r="N183" s="179" t="s">
+      <c r="L183" s="217"/>
+      <c r="M183" s="218"/>
+      <c r="N183" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="O183" s="180"/>
-      <c r="P183" s="181"/>
-      <c r="Q183" s="179"/>
-      <c r="R183" s="180"/>
-      <c r="S183" s="181"/>
+      <c r="O183" s="217"/>
+      <c r="P183" s="218"/>
+      <c r="Q183" s="216"/>
+      <c r="R183" s="217"/>
+      <c r="S183" s="218"/>
       <c r="T183" s="122"/>
       <c r="U183" s="122"/>
       <c r="V183" s="122"/>
@@ -19362,19 +19357,19 @@
       <c r="H184" s="111"/>
       <c r="I184" s="109"/>
       <c r="J184" s="110"/>
-      <c r="K184" s="179" t="s">
+      <c r="K184" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="L184" s="180"/>
-      <c r="M184" s="181"/>
-      <c r="N184" s="179"/>
-      <c r="O184" s="180"/>
-      <c r="P184" s="181"/>
-      <c r="Q184" s="179" t="s">
+      <c r="L184" s="217"/>
+      <c r="M184" s="218"/>
+      <c r="N184" s="216"/>
+      <c r="O184" s="217"/>
+      <c r="P184" s="218"/>
+      <c r="Q184" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="R184" s="180"/>
-      <c r="S184" s="181"/>
+      <c r="R184" s="217"/>
+      <c r="S184" s="218"/>
       <c r="T184" s="122"/>
       <c r="U184" s="122"/>
       <c r="V184" s="122"/>
@@ -19401,7 +19396,7 @@
       <c r="B185" s="119"/>
       <c r="C185" s="120"/>
       <c r="D185" s="121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E185" s="144"/>
       <c r="F185" s="144"/>
@@ -19729,6 +19724,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AK143:AM143"/>
+    <mergeCell ref="AN143:AP143"/>
+    <mergeCell ref="AQ143:AS143"/>
+    <mergeCell ref="K182:M182"/>
+    <mergeCell ref="N182:P182"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="F161:R161"/>
+    <mergeCell ref="S161:AJ161"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:V143"/>
+    <mergeCell ref="W143:Y143"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="W144:Y144"/>
+    <mergeCell ref="F162:R162"/>
+    <mergeCell ref="F163:R163"/>
+    <mergeCell ref="F164:R164"/>
+    <mergeCell ref="S162:AJ162"/>
+    <mergeCell ref="S163:AJ163"/>
+    <mergeCell ref="S164:AJ164"/>
+    <mergeCell ref="K183:M183"/>
+    <mergeCell ref="N183:P183"/>
+    <mergeCell ref="Q183:S183"/>
+    <mergeCell ref="K184:M184"/>
+    <mergeCell ref="N184:P184"/>
+    <mergeCell ref="Q184:S184"/>
+    <mergeCell ref="K178:P178"/>
+    <mergeCell ref="Q178:S179"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="N179:P179"/>
+    <mergeCell ref="K180:M180"/>
+    <mergeCell ref="N180:P180"/>
+    <mergeCell ref="Q180:S180"/>
+    <mergeCell ref="K181:M181"/>
+    <mergeCell ref="N181:P181"/>
+    <mergeCell ref="Q181:S181"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="T135:V135"/>
+    <mergeCell ref="W142:Y142"/>
+    <mergeCell ref="Q142:S142"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="D178:J179"/>
+    <mergeCell ref="Q145:S145"/>
+    <mergeCell ref="T145:V145"/>
+    <mergeCell ref="W145:Y145"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="N48:AH48"/>
+    <mergeCell ref="I49:AB49"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="O50:Z50"/>
+    <mergeCell ref="AA50:AH50"/>
+    <mergeCell ref="AC49:AH49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="N36:AH36"/>
+    <mergeCell ref="I37:AB37"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="O38:AH38"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="E134:P135"/>
@@ -19753,166 +19903,11 @@
     <mergeCell ref="T140:V140"/>
     <mergeCell ref="Q134:V134"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="N48:AH48"/>
-    <mergeCell ref="I49:AB49"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="O50:Z50"/>
-    <mergeCell ref="AA50:AH50"/>
-    <mergeCell ref="AC49:AH49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="N36:AH36"/>
-    <mergeCell ref="I37:AB37"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="O38:AH38"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="T135:V135"/>
-    <mergeCell ref="W142:Y142"/>
-    <mergeCell ref="Q142:S142"/>
-    <mergeCell ref="T142:V142"/>
-    <mergeCell ref="D178:J179"/>
-    <mergeCell ref="Q145:S145"/>
-    <mergeCell ref="T145:V145"/>
-    <mergeCell ref="W145:Y145"/>
-    <mergeCell ref="K183:M183"/>
-    <mergeCell ref="N183:P183"/>
-    <mergeCell ref="Q183:S183"/>
-    <mergeCell ref="K184:M184"/>
-    <mergeCell ref="N184:P184"/>
-    <mergeCell ref="Q184:S184"/>
-    <mergeCell ref="K178:P178"/>
-    <mergeCell ref="Q178:S179"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="N179:P179"/>
-    <mergeCell ref="K180:M180"/>
-    <mergeCell ref="N180:P180"/>
-    <mergeCell ref="Q180:S180"/>
-    <mergeCell ref="K181:M181"/>
-    <mergeCell ref="N181:P181"/>
-    <mergeCell ref="Q181:S181"/>
-    <mergeCell ref="AK143:AM143"/>
-    <mergeCell ref="AN143:AP143"/>
-    <mergeCell ref="AQ143:AS143"/>
-    <mergeCell ref="K182:M182"/>
-    <mergeCell ref="N182:P182"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="F161:R161"/>
-    <mergeCell ref="S161:AJ161"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:V143"/>
-    <mergeCell ref="W143:Y143"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:V144"/>
-    <mergeCell ref="W144:Y144"/>
-    <mergeCell ref="F162:R162"/>
-    <mergeCell ref="F163:R163"/>
-    <mergeCell ref="F164:R164"/>
-    <mergeCell ref="S162:AJ162"/>
-    <mergeCell ref="S163:AJ163"/>
-    <mergeCell ref="S164:AJ164"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;10－&amp;P－</oddFooter>
   </headerFooter>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-307_移行要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-307_移行要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746CA6B5-C4F0-4F5F-A398-434BDB5CF8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7290"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="239">
   <si>
     <t>５．表記例</t>
     <rPh sb="2" eb="4">
@@ -3068,17 +3069,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -3279,15 +3269,12 @@
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -4375,38 +4362,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4416,15 +4379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4462,25 +4416,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4492,6 +4473,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4499,63 +4498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4576,38 +4518,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4645,7 +4632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4743,52 +4736,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4809,7 +4756,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4868,7 +4821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4931,7 +4890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4990,7 +4955,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5053,7 +5024,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -5106,7 +5083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5169,7 +5152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5244,7 +5233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1"/>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5306,7 +5301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5382,7 +5383,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 1"/>
+        <xdr:cNvPr id="17" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5444,7 +5451,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5497,7 +5510,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5550,7 +5569,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5603,7 +5628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1025" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5656,7 +5687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5709,7 +5746,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5762,7 +5805,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5811,7 +5860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 1"/>
+        <xdr:cNvPr id="19" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5885,7 +5940,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5943,7 +6004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="テキスト 2"/>
+        <xdr:cNvPr id="90" name="テキスト 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6006,7 +6073,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="テキスト 2"/>
+        <xdr:cNvPr id="89" name="テキスト 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6069,7 +6142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ホームベース 3"/>
+        <xdr:cNvPr id="4" name="ホームベース 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6121,7 +6200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ホームベース 4"/>
+        <xdr:cNvPr id="5" name="ホームベース 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6173,7 +6258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ホームベース 5"/>
+        <xdr:cNvPr id="6" name="ホームベース 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6225,7 +6316,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ホームベース 6"/>
+        <xdr:cNvPr id="7" name="ホームベース 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6277,7 +6374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ホームベース 7"/>
+        <xdr:cNvPr id="8" name="ホームベース 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6329,7 +6432,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="二等辺三角形 8"/>
+        <xdr:cNvPr id="9" name="二等辺三角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6383,7 +6492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="二等辺三角形 9"/>
+        <xdr:cNvPr id="10" name="二等辺三角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6437,7 +6552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="二等辺三角形 10"/>
+        <xdr:cNvPr id="11" name="二等辺三角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6491,7 +6612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="二等辺三角形 11"/>
+        <xdr:cNvPr id="12" name="二等辺三角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6543,7 +6670,13 @@
     <xdr:ext cx="623312" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6618,7 +6751,13 @@
     <xdr:ext cx="623312" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6693,7 +6832,13 @@
     <xdr:ext cx="623312" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6768,7 +6913,13 @@
     <xdr:ext cx="748923" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6832,7 +6983,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 40"/>
+        <xdr:cNvPr id="17" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6901,7 +7058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 39"/>
+        <xdr:cNvPr id="23" name="AutoShape 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6977,7 +7140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="AutoShape 2"/>
+        <xdr:cNvPr id="40" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7047,7 +7216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 3"/>
+        <xdr:cNvPr id="41" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7116,7 +7291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Text Box 4"/>
+        <xdr:cNvPr id="42" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7178,7 +7359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="AutoShape 5"/>
+        <xdr:cNvPr id="43" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="42" idx="2"/>
@@ -7228,7 +7415,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Text Box 6"/>
+        <xdr:cNvPr id="44" name="Text Box 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7290,7 +7483,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 7"/>
+        <xdr:cNvPr id="45" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="2" idx="3"/>
@@ -7340,7 +7539,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 8"/>
+        <xdr:cNvPr id="46" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7410,7 +7615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 9"/>
+        <xdr:cNvPr id="47" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7479,7 +7690,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="AutoShape 11"/>
+        <xdr:cNvPr id="49" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="44" idx="3"/>
@@ -7529,7 +7746,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="AutoShape 12"/>
+        <xdr:cNvPr id="59" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7599,7 +7822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 13"/>
+        <xdr:cNvPr id="60" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7668,7 +7897,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="AutoShape 14"/>
+        <xdr:cNvPr id="61" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="77" idx="2"/>
@@ -7718,7 +7953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Text Box 15"/>
+        <xdr:cNvPr id="62" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7780,7 +8021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="AutoShape 16"/>
+        <xdr:cNvPr id="63" name="AutoShape 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7850,7 +8097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rectangle 17"/>
+        <xdr:cNvPr id="64" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7919,7 +8172,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="AutoShape 18"/>
+        <xdr:cNvPr id="65" name="AutoShape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="66" idx="3"/>
@@ -7969,7 +8228,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Text Box 19"/>
+        <xdr:cNvPr id="66" name="Text Box 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8031,7 +8296,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="AutoShape 20"/>
+        <xdr:cNvPr id="67" name="AutoShape 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="62" idx="3"/>
@@ -8081,7 +8352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="AutoShape 27"/>
+        <xdr:cNvPr id="68" name="AutoShape 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8151,7 +8428,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rectangle 28"/>
+        <xdr:cNvPr id="69" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8220,7 +8503,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="AutoShape 31"/>
+        <xdr:cNvPr id="72" name="AutoShape 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="76" idx="3"/>
@@ -8270,7 +8559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="AutoShape 32"/>
+        <xdr:cNvPr id="73" name="AutoShape 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="75" idx="3"/>
@@ -8320,7 +8615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Rectangle 40"/>
+        <xdr:cNvPr id="74" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8389,7 +8690,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="AutoShape 42"/>
+        <xdr:cNvPr id="79" name="AutoShape 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8465,7 +8772,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="AutoShape 5"/>
+        <xdr:cNvPr id="81" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="23" idx="4"/>
@@ -8515,7 +8828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="AutoShape 53"/>
+        <xdr:cNvPr id="100" name="AutoShape 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8575,7 +8894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Rectangle 54"/>
+        <xdr:cNvPr id="101" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8644,7 +8969,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="AutoShape 58"/>
+        <xdr:cNvPr id="105" name="AutoShape 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="100" idx="4"/>
@@ -8694,7 +9025,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="AutoShape 59"/>
+        <xdr:cNvPr id="106" name="AutoShape 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8754,7 +9091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Rectangle 60"/>
+        <xdr:cNvPr id="107" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8823,7 +9166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 54"/>
+        <xdr:cNvPr id="54" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8892,7 +9241,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="AutoShape 14"/>
+        <xdr:cNvPr id="55" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="40" idx="4"/>
@@ -8942,7 +9297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト 2"/>
+        <xdr:cNvPr id="96" name="テキスト 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9007,7 +9368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="テキスト 3"/>
+        <xdr:cNvPr id="97" name="テキスト 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9069,7 +9436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="テキスト 5"/>
+        <xdr:cNvPr id="98" name="テキスト 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9134,7 +9507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Text Box 4"/>
+        <xdr:cNvPr id="77" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9196,7 +9575,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Text Box 10"/>
+        <xdr:cNvPr id="80" name="Text Box 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9258,7 +9643,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="AutoShape 14"/>
+        <xdr:cNvPr id="83" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="59" idx="4"/>
@@ -9308,7 +9699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="AutoShape 14"/>
+        <xdr:cNvPr id="86" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="80" idx="3"/>
@@ -9358,7 +9755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="テキスト 2"/>
+        <xdr:cNvPr id="88" name="テキスト 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9423,7 +9826,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="テキスト 5"/>
+        <xdr:cNvPr id="92" name="テキスト 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9488,7 +9897,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="88" idx="2"/>
           <a:endCxn id="98" idx="0"/>
@@ -9541,7 +9956,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="88" idx="2"/>
           <a:endCxn id="96" idx="0"/>
@@ -9593,7 +10014,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="テキスト 3"/>
+        <xdr:cNvPr id="119" name="テキスト 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9655,7 +10082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="96" idx="2"/>
           <a:endCxn id="97" idx="0"/>
@@ -9707,7 +10140,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="96" idx="2"/>
           <a:endCxn id="119" idx="0"/>
@@ -9759,7 +10198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="テキスト 5"/>
+        <xdr:cNvPr id="121" name="テキスト 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9824,7 +10269,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="98" idx="2"/>
           <a:endCxn id="92" idx="0"/>
@@ -9876,7 +10327,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="カギ線コネクタ 83"/>
+        <xdr:cNvPr id="84" name="カギ線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="98" idx="2"/>
           <a:endCxn id="121" idx="0"/>
@@ -9928,7 +10385,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9972,7 +10435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10016,7 +10485,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10049,7 +10524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10091,7 +10566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10124,9 +10599,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10159,6 +10651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10334,7 +10843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10342,42 +10851,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="128"/>
       <c r="H22" s="128"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="128"/>
       <c r="G23" s="128"/>
       <c r="H23" s="128"/>
@@ -10386,12 +10895,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="128"/>
       <c r="G24" s="128"/>
       <c r="H24" s="128"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="128"/>
       <c r="G25" s="128"/>
       <c r="H25" s="128"/>
@@ -10400,38 +10909,38 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
       <c r="H26" s="128"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="128"/>
       <c r="G27" s="128"/>
       <c r="H27" s="128"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="128"/>
       <c r="H28" s="128"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="128"/>
       <c r="G29" s="131"/>
       <c r="H29" s="128"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="128"/>
       <c r="G30" s="131"/>
       <c r="H30" s="128"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="128"/>
       <c r="G31" s="131"/>
       <c r="H31" s="128"/>
       <c r="J31" s="132"/>
       <c r="R31" s="133"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="128"/>
       <c r="H32" s="128"/>
       <c r="L32" s="134"/>
@@ -10443,900 +10952,886 @@
       <c r="R32" s="136"/>
       <c r="S32" s="137"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="134"/>
       <c r="P36" s="134"/>
       <c r="Q36" s="137"/>
       <c r="R36" s="137"/>
       <c r="S36" s="137"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="138"/>
       <c r="P37" s="137"/>
       <c r="Q37" s="138"/>
       <c r="R37" s="137"/>
       <c r="S37" s="139"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="138"/>
       <c r="P38" s="137"/>
       <c r="Q38" s="138"/>
       <c r="R38" s="137"/>
       <c r="S38" s="138"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="140" t="s">
-        <v>232</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="140"/>
       <c r="O39" s="137"/>
       <c r="P39" s="137"/>
       <c r="Q39" s="138"/>
-      <c r="R39" s="138" t="s">
-        <v>233</v>
-      </c>
+      <c r="R39" s="138"/>
       <c r="S39" s="137"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12" customHeight="1">
+    <row r="1" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1">
+    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1">
+    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1">
+    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="12" customHeight="1">
+    <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="152" t="s">
+      <c r="C12" s="167" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="153" t="s">
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1">
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="171"/>
+      <c r="AF12" s="171"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="171"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="154" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157" t="s">
+      <c r="C13" s="172" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="157" t="s">
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="158"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="159"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="176"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="177"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="141">
         <v>2</v>
       </c>
-      <c r="C14" s="163" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="160" t="s">
+      <c r="C14" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="160" t="s">
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="162"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="166">
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="154"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="155">
         <v>3</v>
       </c>
-      <c r="C15" s="169" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="160" t="s">
+      <c r="C15" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="160" t="s">
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="160" t="s">
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="162"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="167"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="160" t="s">
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="154"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="156"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="160" t="s">
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="162"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="166">
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="153"/>
+      <c r="AF16" s="153"/>
+      <c r="AG16" s="153"/>
+      <c r="AH16" s="154"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="155">
         <v>4</v>
       </c>
-      <c r="C17" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="160" t="s">
+      <c r="C17" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="160" t="s">
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="161"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="161"/>
-      <c r="AH17" s="162"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="168"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="160" t="s">
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="153"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="153"/>
+      <c r="AH17" s="154"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="157"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="160" t="s">
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="162"/>
-    </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="167"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="160" t="s">
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="153"/>
+      <c r="AH18" s="154"/>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="156"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="160" t="s">
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="162"/>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="153"/>
+      <c r="AE19" s="153"/>
+      <c r="AF19" s="153"/>
+      <c r="AG19" s="153"/>
+      <c r="AH19" s="154"/>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -11344,7 +11839,7 @@
       <c r="E20" s="142"/>
       <c r="F20" s="142"/>
       <c r="G20" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H20" s="142"/>
       <c r="I20" s="142"/>
@@ -11374,24 +11869,24 @@
       <c r="AG20" s="29"/>
       <c r="AH20" s="29"/>
     </row>
-    <row r="22" spans="1:34" ht="12" customHeight="1">
+    <row r="22" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="13.5" customHeight="1"/>
-    <row r="47" spans="15:15" ht="12" customHeight="1">
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="15:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O47" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
     <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="M15:AA15"/>
@@ -11408,13 +11903,13 @@
     <mergeCell ref="M14:AA14"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="C17:F19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11430,7 +11925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11438,7 +11933,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="17"/>
     <col min="2" max="2" width="8" style="17" bestFit="1" customWidth="1"/>
@@ -11449,14 +11944,14 @@
     <col min="39" max="16384" width="5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AO1" s="127"/>
     </row>
-    <row r="2" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1"/>
-    <row r="3" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>45</v>
@@ -11498,7 +11993,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
     </row>
-    <row r="4" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -11539,7 +12034,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
     </row>
-    <row r="5" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -11581,7 +12076,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
     </row>
-    <row r="6" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -11623,7 +12118,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
     </row>
-    <row r="7" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
@@ -11665,7 +12160,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
     </row>
-    <row r="8" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -11707,7 +12202,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
     </row>
-    <row r="9" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
@@ -11725,8 +12220,8 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="192"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -11750,75 +12245,75 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="193" t="s">
+      <c r="D10" s="211"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194" t="s">
+      <c r="L10" s="217"/>
+      <c r="M10" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194" t="s">
+      <c r="N10" s="217"/>
+      <c r="O10" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194" t="s">
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="193" t="s">
+      <c r="R10" s="217"/>
+      <c r="S10" s="220" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="194"/>
-      <c r="U10" s="194" t="s">
+      <c r="T10" s="217"/>
+      <c r="U10" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194" t="s">
+      <c r="V10" s="217"/>
+      <c r="W10" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="194" t="s">
+      <c r="X10" s="217"/>
+      <c r="Y10" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194" t="s">
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="AB10" s="194"/>
-      <c r="AC10" s="194" t="s">
+      <c r="AB10" s="217"/>
+      <c r="AC10" s="217" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="194" t="s">
+      <c r="AD10" s="217"/>
+      <c r="AE10" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="AF10" s="194"/>
-      <c r="AG10" s="194" t="s">
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="194" t="s">
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194" t="s">
+      <c r="AJ10" s="217"/>
+      <c r="AK10" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="AL10" s="194"/>
+      <c r="AL10" s="217"/>
       <c r="AO10" s="117"/>
     </row>
-    <row r="11" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="D11" s="80" t="s">
@@ -11830,36 +12325,36 @@
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="201"/>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="201"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="201"/>
-      <c r="AJ11" s="201"/>
-      <c r="AK11" s="201"/>
-      <c r="AL11" s="201"/>
-    </row>
-    <row r="12" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="215"/>
+      <c r="X11" s="215"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+      <c r="AA11" s="215"/>
+      <c r="AB11" s="215"/>
+      <c r="AC11" s="215"/>
+      <c r="AD11" s="215"/>
+      <c r="AE11" s="215"/>
+      <c r="AF11" s="215"/>
+      <c r="AG11" s="215"/>
+      <c r="AH11" s="215"/>
+      <c r="AI11" s="215"/>
+      <c r="AJ11" s="215"/>
+      <c r="AK11" s="215"/>
+      <c r="AL11" s="215"/>
+    </row>
+    <row r="12" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="88" t="s">
@@ -11871,37 +12366,37 @@
       <c r="H12" s="113"/>
       <c r="I12" s="89"/>
       <c r="J12" s="89"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="200"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="200"/>
-      <c r="AE12" s="200"/>
-      <c r="AF12" s="200"/>
-      <c r="AG12" s="200"/>
-      <c r="AH12" s="200"/>
-      <c r="AI12" s="200"/>
-      <c r="AJ12" s="200"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="200"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="218"/>
+      <c r="Z12" s="218"/>
+      <c r="AA12" s="218"/>
+      <c r="AB12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="218"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="218"/>
+      <c r="AJ12" s="218"/>
+      <c r="AK12" s="218"/>
+      <c r="AL12" s="218"/>
       <c r="AO12" s="117"/>
     </row>
-    <row r="13" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="D13" s="82" t="s">
@@ -11913,36 +12408,36 @@
       <c r="H13" s="114"/>
       <c r="I13" s="89"/>
       <c r="J13" s="83"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="178"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="178"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="178"/>
-      <c r="AH13" s="178"/>
-      <c r="AI13" s="178"/>
-      <c r="AJ13" s="178"/>
-      <c r="AK13" s="178"/>
-      <c r="AL13" s="178"/>
-    </row>
-    <row r="14" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="216"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="216"/>
+      <c r="S13" s="216"/>
+      <c r="T13" s="216"/>
+      <c r="U13" s="216"/>
+      <c r="V13" s="216"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
+      <c r="Y13" s="216"/>
+      <c r="Z13" s="216"/>
+      <c r="AA13" s="216"/>
+      <c r="AB13" s="216"/>
+      <c r="AC13" s="216"/>
+      <c r="AD13" s="216"/>
+      <c r="AE13" s="216"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="216"/>
+      <c r="AH13" s="216"/>
+      <c r="AI13" s="216"/>
+      <c r="AJ13" s="216"/>
+      <c r="AK13" s="216"/>
+      <c r="AL13" s="216"/>
+    </row>
+    <row r="14" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="D14" s="82" t="s">
@@ -11954,36 +12449,36 @@
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="178"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="178"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="178"/>
-      <c r="Z14" s="178"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="178"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="178"/>
-      <c r="AH14" s="178"/>
-      <c r="AI14" s="178"/>
-      <c r="AJ14" s="178"/>
-      <c r="AK14" s="178"/>
-      <c r="AL14" s="178"/>
-    </row>
-    <row r="15" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="216"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="216"/>
+      <c r="S14" s="216"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="216"/>
+      <c r="V14" s="216"/>
+      <c r="W14" s="216"/>
+      <c r="X14" s="216"/>
+      <c r="Y14" s="216"/>
+      <c r="Z14" s="216"/>
+      <c r="AA14" s="216"/>
+      <c r="AB14" s="216"/>
+      <c r="AC14" s="216"/>
+      <c r="AD14" s="216"/>
+      <c r="AE14" s="216"/>
+      <c r="AF14" s="216"/>
+      <c r="AG14" s="216"/>
+      <c r="AH14" s="216"/>
+      <c r="AI14" s="216"/>
+      <c r="AJ14" s="216"/>
+      <c r="AK14" s="216"/>
+      <c r="AL14" s="216"/>
+    </row>
+    <row r="15" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="86" t="s">
@@ -11995,36 +12490,36 @@
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="191"/>
-      <c r="N15" s="191"/>
-      <c r="O15" s="191"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="191"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="191"/>
-      <c r="AJ15" s="191"/>
-      <c r="AK15" s="191"/>
-      <c r="AL15" s="191"/>
-    </row>
-    <row r="16" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="214"/>
+      <c r="Q15" s="214"/>
+      <c r="R15" s="214"/>
+      <c r="S15" s="214"/>
+      <c r="T15" s="214"/>
+      <c r="U15" s="214"/>
+      <c r="V15" s="214"/>
+      <c r="W15" s="214"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="214"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="214"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="214"/>
+      <c r="AD15" s="214"/>
+      <c r="AE15" s="214"/>
+      <c r="AF15" s="214"/>
+      <c r="AG15" s="214"/>
+      <c r="AH15" s="214"/>
+      <c r="AI15" s="214"/>
+      <c r="AJ15" s="214"/>
+      <c r="AK15" s="214"/>
+      <c r="AL15" s="214"/>
+    </row>
+    <row r="16" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="D16" s="84"/>
@@ -12034,36 +12529,36 @@
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
       <c r="J16" s="91"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="195"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="196"/>
-      <c r="S16" s="195"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="196"/>
-      <c r="W16" s="195"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="195"/>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="196"/>
-      <c r="AE16" s="195"/>
-      <c r="AF16" s="196"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="195"/>
-      <c r="AJ16" s="196"/>
-      <c r="AK16" s="195"/>
-      <c r="AL16" s="196"/>
-    </row>
-    <row r="17" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="K16" s="201"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="202"/>
+      <c r="S16" s="201"/>
+      <c r="T16" s="202"/>
+      <c r="U16" s="201"/>
+      <c r="V16" s="202"/>
+      <c r="W16" s="201"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="201"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="201"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="201"/>
+      <c r="AD16" s="202"/>
+      <c r="AE16" s="201"/>
+      <c r="AF16" s="202"/>
+      <c r="AG16" s="201"/>
+      <c r="AH16" s="202"/>
+      <c r="AI16" s="201"/>
+      <c r="AJ16" s="202"/>
+      <c r="AK16" s="201"/>
+      <c r="AL16" s="202"/>
+    </row>
+    <row r="17" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="119"/>
       <c r="B17" s="119"/>
       <c r="C17" s="121" t="s">
@@ -12107,7 +12602,7 @@
       <c r="AM17" s="119"/>
       <c r="AO17" s="117"/>
     </row>
-    <row r="18" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="119"/>
       <c r="B18" s="119"/>
       <c r="C18" s="121"/>
@@ -12150,7 +12645,7 @@
       <c r="AL18" s="119"/>
       <c r="AM18" s="119"/>
     </row>
-    <row r="19" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="119"/>
       <c r="B19" s="119"/>
       <c r="C19" s="121"/>
@@ -12193,7 +12688,7 @@
       <c r="AL19" s="119"/>
       <c r="AM19" s="119"/>
     </row>
-    <row r="20" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="119"/>
       <c r="B20" s="119"/>
       <c r="C20" s="121"/>
@@ -12236,7 +12731,7 @@
       <c r="AL20" s="119"/>
       <c r="AM20" s="119"/>
     </row>
-    <row r="21" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="119"/>
       <c r="B21" s="119"/>
       <c r="C21" s="117"/>
@@ -12279,7 +12774,7 @@
       <c r="AL21" s="119"/>
       <c r="AM21" s="119"/>
     </row>
-    <row r="22" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="119"/>
       <c r="B22" s="119"/>
       <c r="C22" s="117"/>
@@ -12322,7 +12817,7 @@
       <c r="AL22" s="119"/>
       <c r="AM22" s="119"/>
     </row>
-    <row r="23" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="119"/>
       <c r="B23" s="119"/>
       <c r="C23" s="117"/>
@@ -12365,7 +12860,7 @@
       <c r="AL23" s="119"/>
       <c r="AM23" s="119"/>
     </row>
-    <row r="24" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="119"/>
       <c r="B24" s="119"/>
       <c r="C24" s="117"/>
@@ -12408,7 +12903,7 @@
       <c r="AL24" s="119"/>
       <c r="AM24" s="119"/>
     </row>
-    <row r="25" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="119"/>
       <c r="B25" s="119"/>
       <c r="C25" s="120"/>
@@ -12449,7 +12944,7 @@
       <c r="AL25" s="119"/>
       <c r="AM25" s="119"/>
     </row>
-    <row r="26" spans="1:41" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:41" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>78</v>
@@ -12493,7 +12988,7 @@
       <c r="AM26" s="8"/>
       <c r="AO26" s="117"/>
     </row>
-    <row r="27" spans="1:41" s="5" customFormat="1" ht="11.25" customHeight="1">
+    <row r="27" spans="1:41" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
@@ -12534,7 +13029,7 @@
       <c r="AL27" s="8"/>
       <c r="AM27" s="8"/>
     </row>
-    <row r="28" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="28" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="92" t="s">
@@ -12579,7 +13074,7 @@
       <c r="AL28" s="8"/>
       <c r="AM28" s="8"/>
     </row>
-    <row r="29" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="92"/>
@@ -12622,7 +13117,7 @@
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
     </row>
-    <row r="30" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="92"/>
@@ -12666,7 +13161,7 @@
       <c r="AM30" s="8"/>
       <c r="AO30" s="117"/>
     </row>
-    <row r="31" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
@@ -12709,7 +13204,7 @@
       <c r="AL31" s="8"/>
       <c r="AM31" s="8"/>
     </row>
-    <row r="32" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="32" spans="1:41" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
@@ -12752,7 +13247,7 @@
       <c r="AL32" s="8"/>
       <c r="AM32" s="8"/>
     </row>
-    <row r="33" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -12797,7 +13292,7 @@
       <c r="AL33" s="8"/>
       <c r="AM33" s="8"/>
     </row>
-    <row r="34" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="10"/>
@@ -12850,7 +13345,7 @@
       <c r="AL34" s="8"/>
       <c r="AM34" s="8"/>
     </row>
-    <row r="35" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -12899,7 +13394,7 @@
       <c r="AL35" s="8"/>
       <c r="AM35" s="8"/>
     </row>
-    <row r="36" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -12917,36 +13412,36 @@
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
-      <c r="N36" s="197" t="s">
+      <c r="N36" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="O36" s="198"/>
-      <c r="P36" s="198"/>
-      <c r="Q36" s="198"/>
-      <c r="R36" s="198"/>
-      <c r="S36" s="198"/>
-      <c r="T36" s="198"/>
-      <c r="U36" s="198"/>
-      <c r="V36" s="198"/>
-      <c r="W36" s="198"/>
-      <c r="X36" s="198"/>
-      <c r="Y36" s="198"/>
-      <c r="Z36" s="198"/>
-      <c r="AA36" s="198"/>
-      <c r="AB36" s="198"/>
-      <c r="AC36" s="198"/>
-      <c r="AD36" s="198"/>
-      <c r="AE36" s="198"/>
-      <c r="AF36" s="198"/>
-      <c r="AG36" s="198"/>
-      <c r="AH36" s="199"/>
+      <c r="O36" s="206"/>
+      <c r="P36" s="206"/>
+      <c r="Q36" s="206"/>
+      <c r="R36" s="206"/>
+      <c r="S36" s="206"/>
+      <c r="T36" s="206"/>
+      <c r="U36" s="206"/>
+      <c r="V36" s="206"/>
+      <c r="W36" s="206"/>
+      <c r="X36" s="206"/>
+      <c r="Y36" s="206"/>
+      <c r="Z36" s="206"/>
+      <c r="AA36" s="206"/>
+      <c r="AB36" s="206"/>
+      <c r="AC36" s="206"/>
+      <c r="AD36" s="206"/>
+      <c r="AE36" s="206"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="206"/>
+      <c r="AH36" s="207"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="60"/>
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
       <c r="AM36" s="8"/>
     </row>
-    <row r="37" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="10"/>
@@ -12957,28 +13452,28 @@
       </c>
       <c r="G37" s="62"/>
       <c r="H37" s="62"/>
-      <c r="I37" s="197" t="s">
+      <c r="I37" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="198"/>
-      <c r="O37" s="198"/>
-      <c r="P37" s="198"/>
-      <c r="Q37" s="198"/>
-      <c r="R37" s="198"/>
-      <c r="S37" s="198"/>
-      <c r="T37" s="198"/>
-      <c r="U37" s="198"/>
-      <c r="V37" s="198"/>
-      <c r="W37" s="198"/>
-      <c r="X37" s="198"/>
-      <c r="Y37" s="198"/>
-      <c r="Z37" s="198"/>
-      <c r="AA37" s="198"/>
-      <c r="AB37" s="199"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="206"/>
+      <c r="M37" s="206"/>
+      <c r="N37" s="206"/>
+      <c r="O37" s="206"/>
+      <c r="P37" s="206"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="206"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="206"/>
+      <c r="V37" s="206"/>
+      <c r="W37" s="206"/>
+      <c r="X37" s="206"/>
+      <c r="Y37" s="206"/>
+      <c r="Z37" s="206"/>
+      <c r="AA37" s="206"/>
+      <c r="AB37" s="207"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43" t="s">
         <v>19</v>
@@ -12993,7 +13488,7 @@
       <c r="AL37" s="8"/>
       <c r="AM37" s="8"/>
     </row>
-    <row r="38" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="38" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="10"/>
@@ -13012,35 +13507,35 @@
       <c r="L38" s="44"/>
       <c r="M38" s="44"/>
       <c r="N38" s="74"/>
-      <c r="O38" s="197" t="s">
+      <c r="O38" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="P38" s="198"/>
-      <c r="Q38" s="198"/>
-      <c r="R38" s="198"/>
-      <c r="S38" s="198"/>
-      <c r="T38" s="198"/>
-      <c r="U38" s="198"/>
-      <c r="V38" s="198"/>
-      <c r="W38" s="198"/>
-      <c r="X38" s="198"/>
-      <c r="Y38" s="198"/>
-      <c r="Z38" s="198"/>
-      <c r="AA38" s="198"/>
-      <c r="AB38" s="198"/>
-      <c r="AC38" s="198"/>
-      <c r="AD38" s="198"/>
-      <c r="AE38" s="198"/>
-      <c r="AF38" s="198"/>
-      <c r="AG38" s="198"/>
-      <c r="AH38" s="199"/>
+      <c r="P38" s="206"/>
+      <c r="Q38" s="206"/>
+      <c r="R38" s="206"/>
+      <c r="S38" s="206"/>
+      <c r="T38" s="206"/>
+      <c r="U38" s="206"/>
+      <c r="V38" s="206"/>
+      <c r="W38" s="206"/>
+      <c r="X38" s="206"/>
+      <c r="Y38" s="206"/>
+      <c r="Z38" s="206"/>
+      <c r="AA38" s="206"/>
+      <c r="AB38" s="206"/>
+      <c r="AC38" s="206"/>
+      <c r="AD38" s="206"/>
+      <c r="AE38" s="206"/>
+      <c r="AF38" s="206"/>
+      <c r="AG38" s="206"/>
+      <c r="AH38" s="207"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="60"/>
       <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
       <c r="AM38" s="8"/>
     </row>
-    <row r="39" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
@@ -13051,13 +13546,13 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="197" t="s">
+      <c r="I39" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="198"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="198"/>
-      <c r="M39" s="199"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="206"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="207"/>
       <c r="N39" s="45"/>
       <c r="O39" s="46" t="s">
         <v>17</v>
@@ -13089,7 +13584,7 @@
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
     </row>
-    <row r="40" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="40" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
@@ -13130,7 +13625,7 @@
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
     </row>
-    <row r="41" spans="1:39" s="5" customFormat="1" ht="11.25" customHeight="1">
+    <row r="41" spans="1:39" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
@@ -13171,7 +13666,7 @@
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
     </row>
-    <row r="42" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="42" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
@@ -13216,7 +13711,7 @@
       <c r="AL42" s="8"/>
       <c r="AM42" s="8"/>
     </row>
-    <row r="43" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="43" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
@@ -13259,7 +13754,7 @@
       <c r="AL43" s="8"/>
       <c r="AM43" s="8"/>
     </row>
-    <row r="44" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="44" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
@@ -13302,7 +13797,7 @@
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
     </row>
-    <row r="45" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="45" spans="1:39" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -13347,7 +13842,7 @@
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
     </row>
-    <row r="46" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="46" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="10"/>
@@ -13400,7 +13895,7 @@
       <c r="AL46" s="8"/>
       <c r="AM46" s="8"/>
     </row>
-    <row r="47" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="47" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -13449,7 +13944,7 @@
       <c r="AL47" s="8"/>
       <c r="AM47" s="8"/>
     </row>
-    <row r="48" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="48" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -13467,36 +13962,36 @@
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
-      <c r="N48" s="197" t="s">
+      <c r="N48" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="198"/>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="198"/>
-      <c r="S48" s="198"/>
-      <c r="T48" s="198"/>
-      <c r="U48" s="198"/>
-      <c r="V48" s="198"/>
-      <c r="W48" s="198"/>
-      <c r="X48" s="198"/>
-      <c r="Y48" s="198"/>
-      <c r="Z48" s="198"/>
-      <c r="AA48" s="198"/>
-      <c r="AB48" s="198"/>
-      <c r="AC48" s="198"/>
-      <c r="AD48" s="198"/>
-      <c r="AE48" s="198"/>
-      <c r="AF48" s="198"/>
-      <c r="AG48" s="198"/>
-      <c r="AH48" s="199"/>
+      <c r="O48" s="206"/>
+      <c r="P48" s="206"/>
+      <c r="Q48" s="206"/>
+      <c r="R48" s="206"/>
+      <c r="S48" s="206"/>
+      <c r="T48" s="206"/>
+      <c r="U48" s="206"/>
+      <c r="V48" s="206"/>
+      <c r="W48" s="206"/>
+      <c r="X48" s="206"/>
+      <c r="Y48" s="206"/>
+      <c r="Z48" s="206"/>
+      <c r="AA48" s="206"/>
+      <c r="AB48" s="206"/>
+      <c r="AC48" s="206"/>
+      <c r="AD48" s="206"/>
+      <c r="AE48" s="206"/>
+      <c r="AF48" s="206"/>
+      <c r="AG48" s="206"/>
+      <c r="AH48" s="207"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="60"/>
       <c r="AK48" s="8"/>
       <c r="AL48" s="8"/>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="10"/>
@@ -13507,43 +14002,43 @@
       </c>
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
-      <c r="I49" s="197" t="s">
+      <c r="I49" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="198"/>
-      <c r="K49" s="198"/>
-      <c r="L49" s="198"/>
-      <c r="M49" s="198"/>
-      <c r="N49" s="198"/>
-      <c r="O49" s="198"/>
-      <c r="P49" s="198"/>
-      <c r="Q49" s="198"/>
-      <c r="R49" s="198"/>
-      <c r="S49" s="198"/>
-      <c r="T49" s="198"/>
-      <c r="U49" s="198"/>
-      <c r="V49" s="198"/>
-      <c r="W49" s="198"/>
-      <c r="X49" s="198"/>
-      <c r="Y49" s="198"/>
-      <c r="Z49" s="198"/>
-      <c r="AA49" s="198"/>
-      <c r="AB49" s="199"/>
-      <c r="AC49" s="197" t="s">
+      <c r="J49" s="206"/>
+      <c r="K49" s="206"/>
+      <c r="L49" s="206"/>
+      <c r="M49" s="206"/>
+      <c r="N49" s="206"/>
+      <c r="O49" s="206"/>
+      <c r="P49" s="206"/>
+      <c r="Q49" s="206"/>
+      <c r="R49" s="206"/>
+      <c r="S49" s="206"/>
+      <c r="T49" s="206"/>
+      <c r="U49" s="206"/>
+      <c r="V49" s="206"/>
+      <c r="W49" s="206"/>
+      <c r="X49" s="206"/>
+      <c r="Y49" s="206"/>
+      <c r="Z49" s="206"/>
+      <c r="AA49" s="206"/>
+      <c r="AB49" s="207"/>
+      <c r="AC49" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="AD49" s="198"/>
-      <c r="AE49" s="198"/>
-      <c r="AF49" s="198"/>
-      <c r="AG49" s="198"/>
-      <c r="AH49" s="199"/>
+      <c r="AD49" s="206"/>
+      <c r="AE49" s="206"/>
+      <c r="AF49" s="206"/>
+      <c r="AG49" s="206"/>
+      <c r="AH49" s="207"/>
       <c r="AI49" s="8"/>
       <c r="AJ49" s="60"/>
       <c r="AK49" s="8"/>
       <c r="AL49" s="8"/>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
@@ -13554,62 +14049,62 @@
       </c>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
-      <c r="I50" s="197" t="s">
+      <c r="I50" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="198"/>
-      <c r="K50" s="198"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="198"/>
-      <c r="N50" s="199"/>
-      <c r="O50" s="197" t="s">
+      <c r="J50" s="206"/>
+      <c r="K50" s="206"/>
+      <c r="L50" s="206"/>
+      <c r="M50" s="206"/>
+      <c r="N50" s="207"/>
+      <c r="O50" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="198"/>
-      <c r="R50" s="198"/>
-      <c r="S50" s="198"/>
-      <c r="T50" s="198"/>
-      <c r="U50" s="198"/>
-      <c r="V50" s="198"/>
-      <c r="W50" s="198"/>
-      <c r="X50" s="198"/>
-      <c r="Y50" s="198"/>
-      <c r="Z50" s="199"/>
-      <c r="AA50" s="197" t="s">
+      <c r="P50" s="206"/>
+      <c r="Q50" s="206"/>
+      <c r="R50" s="206"/>
+      <c r="S50" s="206"/>
+      <c r="T50" s="206"/>
+      <c r="U50" s="206"/>
+      <c r="V50" s="206"/>
+      <c r="W50" s="206"/>
+      <c r="X50" s="206"/>
+      <c r="Y50" s="206"/>
+      <c r="Z50" s="207"/>
+      <c r="AA50" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="AB50" s="198"/>
-      <c r="AC50" s="198"/>
-      <c r="AD50" s="198"/>
-      <c r="AE50" s="198"/>
-      <c r="AF50" s="198"/>
-      <c r="AG50" s="198"/>
-      <c r="AH50" s="199"/>
+      <c r="AB50" s="206"/>
+      <c r="AC50" s="206"/>
+      <c r="AD50" s="206"/>
+      <c r="AE50" s="206"/>
+      <c r="AF50" s="206"/>
+      <c r="AG50" s="206"/>
+      <c r="AH50" s="207"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="60"/>
       <c r="AK50" s="8"/>
       <c r="AL50" s="8"/>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="51" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="10"/>
       <c r="D51" s="14"/>
       <c r="E51" s="67"/>
-      <c r="F51" s="205" t="s">
+      <c r="F51" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="205"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="197" t="s">
+      <c r="G51" s="203"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="198"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="199"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="206"/>
+      <c r="L51" s="206"/>
+      <c r="M51" s="207"/>
       <c r="N51" s="45"/>
       <c r="O51" s="46" t="s">
         <v>17</v>
@@ -13641,22 +14136,22 @@
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="52" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
       <c r="D52" s="14"/>
       <c r="E52" s="67"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="197" t="s">
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="198"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="199"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="207"/>
       <c r="N52" s="45"/>
       <c r="O52" s="46" t="s">
         <v>98</v>
@@ -13688,7 +14183,7 @@
       <c r="AL52" s="8"/>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="53" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="10"/>
@@ -13729,7 +14224,7 @@
       <c r="AL53" s="8"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="54" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="92" t="s">
@@ -13774,7 +14269,7 @@
       <c r="AL54" s="8"/>
       <c r="AM54" s="8"/>
     </row>
-    <row r="55" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="55" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="92"/>
@@ -13817,7 +14312,7 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
     </row>
-    <row r="56" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="56" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="10" t="s">
@@ -13860,7 +14355,7 @@
       <c r="AL56" s="8"/>
       <c r="AM56" s="8"/>
     </row>
-    <row r="57" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="57" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="10"/>
@@ -13901,7 +14396,7 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="58" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="10"/>
@@ -13942,7 +14437,7 @@
       <c r="AL58" s="8"/>
       <c r="AM58" s="8"/>
     </row>
-    <row r="59" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="59" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="10"/>
@@ -13983,7 +14478,7 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
     </row>
-    <row r="60" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="60" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="10"/>
@@ -14026,7 +14521,7 @@
       <c r="AL60" s="8"/>
       <c r="AM60" s="8"/>
     </row>
-    <row r="61" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="61" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="10"/>
@@ -14069,7 +14564,7 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
     </row>
-    <row r="62" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="62" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="10"/>
@@ -14112,7 +14607,7 @@
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
     </row>
-    <row r="63" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="63" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="10" t="s">
@@ -14155,7 +14650,7 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
     </row>
-    <row r="64" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="64" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="10"/>
@@ -14197,7 +14692,7 @@
       <c r="AM64" s="8"/>
       <c r="AO64" s="117"/>
     </row>
-    <row r="65" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="65" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="10"/>
@@ -14238,7 +14733,7 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
     </row>
-    <row r="66" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="66" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="10"/>
@@ -14279,7 +14774,7 @@
       <c r="AL66" s="8"/>
       <c r="AM66" s="8"/>
     </row>
-    <row r="67" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="67" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="10"/>
@@ -14320,7 +14815,7 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
     </row>
-    <row r="68" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="68" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="10"/>
@@ -14363,7 +14858,7 @@
       <c r="AL68" s="8"/>
       <c r="AM68" s="8"/>
     </row>
-    <row r="69" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="69" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="10"/>
@@ -14406,7 +14901,7 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
     </row>
-    <row r="70" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="70" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="10"/>
@@ -14449,7 +14944,7 @@
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
     </row>
-    <row r="71" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="71" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="10"/>
@@ -14492,7 +14987,7 @@
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
     </row>
-    <row r="72" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="72" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="10" t="s">
@@ -14535,7 +15030,7 @@
       <c r="AL72" s="8"/>
       <c r="AM72" s="8"/>
     </row>
-    <row r="73" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="73" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="10"/>
@@ -14576,7 +15071,7 @@
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
     </row>
-    <row r="74" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="74" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="10"/>
@@ -14617,7 +15112,7 @@
       <c r="AL74" s="8"/>
       <c r="AM74" s="8"/>
     </row>
-    <row r="75" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="75" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="10"/>
@@ -14658,7 +15153,7 @@
       <c r="AL75" s="8"/>
       <c r="AM75" s="8"/>
     </row>
-    <row r="76" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="76" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="10"/>
@@ -14701,7 +15196,7 @@
       <c r="AL76" s="8"/>
       <c r="AM76" s="8"/>
     </row>
-    <row r="77" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="77" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="10"/>
@@ -14744,7 +15239,7 @@
       <c r="AL77" s="8"/>
       <c r="AM77" s="8"/>
     </row>
-    <row r="78" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="78" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="10"/>
@@ -14787,7 +15282,7 @@
       <c r="AL78" s="8"/>
       <c r="AM78" s="8"/>
     </row>
-    <row r="79" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="79" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="10"/>
@@ -14830,7 +15325,7 @@
       <c r="AL79" s="8"/>
       <c r="AM79" s="8"/>
     </row>
-    <row r="80" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="80" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="10"/>
@@ -14873,7 +15368,7 @@
       <c r="AL80" s="8"/>
       <c r="AM80" s="8"/>
     </row>
-    <row r="81" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="81" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="10" t="s">
@@ -14916,7 +15411,7 @@
       <c r="AL81" s="8"/>
       <c r="AM81" s="8"/>
     </row>
-    <row r="82" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="82" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="10"/>
@@ -14957,7 +15452,7 @@
       <c r="AL82" s="8"/>
       <c r="AM82" s="8"/>
     </row>
-    <row r="83" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="83" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="10"/>
@@ -14998,7 +15493,7 @@
       <c r="AL83" s="8"/>
       <c r="AM83" s="8"/>
     </row>
-    <row r="84" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="84" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="10"/>
@@ -15039,7 +15534,7 @@
       <c r="AL84" s="8"/>
       <c r="AM84" s="8"/>
     </row>
-    <row r="85" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="85" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="10"/>
@@ -15082,7 +15577,7 @@
       <c r="AL85" s="8"/>
       <c r="AM85" s="8"/>
     </row>
-    <row r="86" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="86" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="10"/>
@@ -15125,7 +15620,7 @@
       <c r="AL86" s="8"/>
       <c r="AM86" s="8"/>
     </row>
-    <row r="87" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="87" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="10" t="s">
@@ -15168,7 +15663,7 @@
       <c r="AL87" s="8"/>
       <c r="AM87" s="8"/>
     </row>
-    <row r="88" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="88" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="10"/>
@@ -15209,7 +15704,7 @@
       <c r="AL88" s="8"/>
       <c r="AM88" s="8"/>
     </row>
-    <row r="89" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="89" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="10"/>
@@ -15250,7 +15745,7 @@
       <c r="AL89" s="8"/>
       <c r="AM89" s="8"/>
     </row>
-    <row r="90" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="90" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="10"/>
@@ -15291,7 +15786,7 @@
       <c r="AL90" s="8"/>
       <c r="AM90" s="8"/>
     </row>
-    <row r="91" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="91" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="10"/>
@@ -15332,7 +15827,7 @@
       <c r="AL91" s="8"/>
       <c r="AM91" s="8"/>
     </row>
-    <row r="92" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="92" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="10"/>
@@ -15375,7 +15870,7 @@
       <c r="AL92" s="8"/>
       <c r="AM92" s="8"/>
     </row>
-    <row r="93" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="93" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="10"/>
@@ -15418,7 +15913,7 @@
       <c r="AL93" s="8"/>
       <c r="AM93" s="8"/>
     </row>
-    <row r="94" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="94" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="10"/>
@@ -15461,7 +15956,7 @@
       <c r="AL94" s="8"/>
       <c r="AM94" s="8"/>
     </row>
-    <row r="95" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="95" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="10"/>
@@ -15502,7 +15997,7 @@
       <c r="AL95" s="8"/>
       <c r="AM95" s="8"/>
     </row>
-    <row r="96" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="96" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
         <v>130</v>
@@ -15545,7 +16040,7 @@
       <c r="AL96" s="8"/>
       <c r="AM96" s="8"/>
     </row>
-    <row r="97" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="97" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="93" t="s">
@@ -15586,13 +16081,13 @@
       <c r="AL97" s="8"/>
       <c r="AM97" s="8"/>
     </row>
-    <row r="98" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="98" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -15625,7 +16120,7 @@
       <c r="AM98" s="8"/>
       <c r="AO98" s="117"/>
     </row>
-    <row r="99" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="99" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -15663,7 +16158,7 @@
       <c r="AL99" s="8"/>
       <c r="AM99" s="8"/>
     </row>
-    <row r="100" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="100" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -15708,7 +16203,7 @@
       <c r="AL100" s="8"/>
       <c r="AM100" s="8"/>
     </row>
-    <row r="101" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="101" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -15751,7 +16246,7 @@
       <c r="AL101" s="8"/>
       <c r="AM101" s="8"/>
     </row>
-    <row r="102" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="102" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="E102" s="8"/>
@@ -15792,7 +16287,7 @@
       <c r="AL102" s="8"/>
       <c r="AM102" s="8"/>
     </row>
-    <row r="103" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="103" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -15835,7 +16330,7 @@
       <c r="AL103" s="8"/>
       <c r="AM103" s="8"/>
     </row>
-    <row r="104" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="104" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -15878,7 +16373,7 @@
       <c r="AL104" s="8"/>
       <c r="AM104" s="8"/>
     </row>
-    <row r="105" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="105" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -15920,7 +16415,7 @@
       <c r="AL105" s="8"/>
       <c r="AM105" s="8"/>
     </row>
-    <row r="106" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="106" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -15963,7 +16458,7 @@
       <c r="AL106" s="8"/>
       <c r="AM106" s="8"/>
     </row>
-    <row r="107" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="107" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -16004,7 +16499,7 @@
       <c r="AL107" s="8"/>
       <c r="AM107" s="8"/>
     </row>
-    <row r="108" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="108" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -16044,7 +16539,7 @@
       <c r="AL108" s="8"/>
       <c r="AM108" s="8"/>
     </row>
-    <row r="109" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="109" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -16088,7 +16583,7 @@
       <c r="AL109" s="8"/>
       <c r="AM109" s="8"/>
     </row>
-    <row r="110" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="110" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -16127,7 +16622,7 @@
       <c r="AL110" s="8"/>
       <c r="AM110" s="8"/>
     </row>
-    <row r="111" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="111" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -16169,7 +16664,7 @@
       <c r="AL111" s="8"/>
       <c r="AM111" s="8"/>
     </row>
-    <row r="112" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="112" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="93" t="s">
@@ -16213,7 +16708,7 @@
       <c r="AL112" s="8"/>
       <c r="AM112" s="8"/>
     </row>
-    <row r="113" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="113" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -16255,7 +16750,7 @@
       <c r="AL113" s="8"/>
       <c r="AM113" s="8"/>
     </row>
-    <row r="114" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="114" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -16299,7 +16794,7 @@
       <c r="AL114" s="8"/>
       <c r="AM114" s="8"/>
     </row>
-    <row r="115" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="115" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -16344,7 +16839,7 @@
       <c r="AL115" s="8"/>
       <c r="AM115" s="8"/>
     </row>
-    <row r="116" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="116" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -16385,7 +16880,7 @@
       <c r="AL116" s="8"/>
       <c r="AM116" s="8"/>
     </row>
-    <row r="117" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="117" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -16428,7 +16923,7 @@
       <c r="AL117" s="8"/>
       <c r="AM117" s="8"/>
     </row>
-    <row r="118" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="118" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -16470,7 +16965,7 @@
       <c r="AL118" s="8"/>
       <c r="AM118" s="8"/>
     </row>
-    <row r="119" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="119" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -16510,7 +17005,7 @@
       <c r="AL119" s="8"/>
       <c r="AM119" s="8"/>
     </row>
-    <row r="120" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="120" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -16551,7 +17046,7 @@
       <c r="AL120" s="8"/>
       <c r="AM120" s="8"/>
     </row>
-    <row r="121" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="121" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -16598,7 +17093,7 @@
       <c r="AL121" s="8"/>
       <c r="AM121" s="8"/>
     </row>
-    <row r="122" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="122" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="10"/>
@@ -16641,7 +17136,7 @@
       <c r="AM122" s="8"/>
       <c r="AN122" s="13"/>
     </row>
-    <row r="123" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="123" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -16684,7 +17179,7 @@
       <c r="AL123" s="8"/>
       <c r="AM123" s="8"/>
     </row>
-    <row r="124" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="124" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -16731,7 +17226,7 @@
       <c r="AL124" s="8"/>
       <c r="AM124" s="8"/>
     </row>
-    <row r="125" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="125" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -16774,7 +17269,7 @@
       <c r="AL125" s="8"/>
       <c r="AM125" s="8"/>
     </row>
-    <row r="126" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="126" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -16817,7 +17312,7 @@
       <c r="AL126" s="8"/>
       <c r="AM126" s="8"/>
     </row>
-    <row r="127" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="127" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="8"/>
       <c r="B127" s="31"/>
       <c r="C127" s="14"/>
@@ -16858,7 +17353,7 @@
       <c r="AL127" s="8"/>
       <c r="AM127" s="8"/>
     </row>
-    <row r="128" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="128" spans="1:40" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="10"/>
@@ -16905,7 +17400,7 @@
       <c r="AL128" s="8"/>
       <c r="AM128" s="8"/>
     </row>
-    <row r="129" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="129" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="10"/>
@@ -16946,7 +17441,7 @@
       <c r="AL129" s="8"/>
       <c r="AM129" s="8"/>
     </row>
-    <row r="130" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="130" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="10"/>
@@ -16987,7 +17482,7 @@
       <c r="AL130" s="8"/>
       <c r="AM130" s="8"/>
     </row>
-    <row r="131" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="131" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8"/>
       <c r="B131" s="8" t="s">
         <v>138</v>
@@ -17030,7 +17525,7 @@
       <c r="AL131" s="8"/>
       <c r="AM131" s="8"/>
     </row>
-    <row r="132" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="132" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="92" t="s">
@@ -17075,7 +17570,7 @@
       <c r="AL132" s="8"/>
       <c r="AM132" s="8"/>
     </row>
-    <row r="133" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="133" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="10" t="s">
@@ -17118,38 +17613,38 @@
       <c r="AL133" s="8"/>
       <c r="AM133" s="8"/>
     </row>
-    <row r="134" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="134" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="10"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="179" t="s">
+      <c r="E134" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="F134" s="180"/>
-      <c r="G134" s="180"/>
-      <c r="H134" s="180"/>
-      <c r="I134" s="180"/>
-      <c r="J134" s="180"/>
-      <c r="K134" s="180"/>
-      <c r="L134" s="180"/>
-      <c r="M134" s="180"/>
-      <c r="N134" s="180"/>
-      <c r="O134" s="180"/>
-      <c r="P134" s="181"/>
-      <c r="Q134" s="188" t="s">
+      <c r="F134" s="222"/>
+      <c r="G134" s="222"/>
+      <c r="H134" s="222"/>
+      <c r="I134" s="222"/>
+      <c r="J134" s="222"/>
+      <c r="K134" s="222"/>
+      <c r="L134" s="222"/>
+      <c r="M134" s="222"/>
+      <c r="N134" s="222"/>
+      <c r="O134" s="222"/>
+      <c r="P134" s="223"/>
+      <c r="Q134" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="R134" s="189"/>
-      <c r="S134" s="189"/>
-      <c r="T134" s="189"/>
-      <c r="U134" s="189"/>
-      <c r="V134" s="190"/>
-      <c r="W134" s="179" t="s">
+      <c r="R134" s="193"/>
+      <c r="S134" s="193"/>
+      <c r="T134" s="193"/>
+      <c r="U134" s="193"/>
+      <c r="V134" s="194"/>
+      <c r="W134" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="X134" s="180"/>
-      <c r="Y134" s="181"/>
+      <c r="X134" s="222"/>
+      <c r="Y134" s="223"/>
       <c r="Z134" s="96"/>
       <c r="AA134" s="96"/>
       <c r="AB134" s="51"/>
@@ -17162,36 +17657,36 @@
       <c r="AI134" s="8"/>
       <c r="AO134" s="117"/>
     </row>
-    <row r="135" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="135" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="10"/>
       <c r="D135" s="14"/>
-      <c r="E135" s="182"/>
-      <c r="F135" s="183"/>
-      <c r="G135" s="183"/>
-      <c r="H135" s="183"/>
-      <c r="I135" s="183"/>
-      <c r="J135" s="183"/>
-      <c r="K135" s="183"/>
-      <c r="L135" s="183"/>
-      <c r="M135" s="183"/>
-      <c r="N135" s="183"/>
-      <c r="O135" s="183"/>
-      <c r="P135" s="184"/>
-      <c r="Q135" s="207" t="s">
+      <c r="E135" s="224"/>
+      <c r="F135" s="225"/>
+      <c r="G135" s="225"/>
+      <c r="H135" s="225"/>
+      <c r="I135" s="225"/>
+      <c r="J135" s="225"/>
+      <c r="K135" s="225"/>
+      <c r="L135" s="225"/>
+      <c r="M135" s="225"/>
+      <c r="N135" s="225"/>
+      <c r="O135" s="225"/>
+      <c r="P135" s="226"/>
+      <c r="Q135" s="208" t="s">
         <v>140</v>
       </c>
-      <c r="R135" s="208"/>
-      <c r="S135" s="209"/>
-      <c r="T135" s="188" t="s">
+      <c r="R135" s="209"/>
+      <c r="S135" s="210"/>
+      <c r="T135" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="U135" s="208"/>
-      <c r="V135" s="209"/>
-      <c r="W135" s="182"/>
-      <c r="X135" s="183"/>
-      <c r="Y135" s="184"/>
+      <c r="U135" s="209"/>
+      <c r="V135" s="210"/>
+      <c r="W135" s="224"/>
+      <c r="X135" s="225"/>
+      <c r="Y135" s="226"/>
       <c r="Z135" s="96"/>
       <c r="AA135" s="96"/>
       <c r="AB135" s="51"/>
@@ -17203,7 +17698,7 @@
       <c r="AH135" s="8"/>
       <c r="AI135" s="8"/>
     </row>
-    <row r="136" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="136" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="10"/>
@@ -17222,19 +17717,19 @@
       <c r="N136" s="98"/>
       <c r="O136" s="98"/>
       <c r="P136" s="99"/>
-      <c r="Q136" s="185" t="s">
+      <c r="Q136" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="R136" s="186"/>
-      <c r="S136" s="187"/>
-      <c r="T136" s="185"/>
-      <c r="U136" s="186"/>
-      <c r="V136" s="187"/>
-      <c r="W136" s="185" t="s">
+      <c r="R136" s="184"/>
+      <c r="S136" s="185"/>
+      <c r="T136" s="183"/>
+      <c r="U136" s="184"/>
+      <c r="V136" s="185"/>
+      <c r="W136" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="X136" s="186"/>
-      <c r="Y136" s="187"/>
+      <c r="X136" s="184"/>
+      <c r="Y136" s="185"/>
       <c r="Z136" s="96"/>
       <c r="AA136" s="96"/>
       <c r="AB136" s="51"/>
@@ -17245,7 +17740,7 @@
       <c r="AH136" s="8"/>
       <c r="AI136" s="8"/>
     </row>
-    <row r="137" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="137" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="10"/>
@@ -17264,19 +17759,19 @@
       <c r="N137" s="98"/>
       <c r="O137" s="98"/>
       <c r="P137" s="99"/>
-      <c r="Q137" s="185"/>
-      <c r="R137" s="186"/>
-      <c r="S137" s="187"/>
-      <c r="T137" s="185" t="s">
+      <c r="Q137" s="183"/>
+      <c r="R137" s="184"/>
+      <c r="S137" s="185"/>
+      <c r="T137" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="U137" s="186"/>
-      <c r="V137" s="187"/>
-      <c r="W137" s="185" t="s">
+      <c r="U137" s="184"/>
+      <c r="V137" s="185"/>
+      <c r="W137" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="X137" s="186"/>
-      <c r="Y137" s="187"/>
+      <c r="X137" s="184"/>
+      <c r="Y137" s="185"/>
       <c r="Z137" s="96"/>
       <c r="AA137" s="96"/>
       <c r="AB137" s="51"/>
@@ -17292,7 +17787,7 @@
       <c r="AL137" s="118"/>
       <c r="AM137" s="118"/>
     </row>
-    <row r="138" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="138" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="10"/>
@@ -17311,19 +17806,19 @@
       <c r="N138" s="98"/>
       <c r="O138" s="98"/>
       <c r="P138" s="99"/>
-      <c r="Q138" s="185" t="s">
+      <c r="Q138" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="R138" s="186"/>
-      <c r="S138" s="187"/>
-      <c r="T138" s="185"/>
-      <c r="U138" s="186"/>
-      <c r="V138" s="187"/>
-      <c r="W138" s="185" t="s">
+      <c r="R138" s="184"/>
+      <c r="S138" s="185"/>
+      <c r="T138" s="183"/>
+      <c r="U138" s="184"/>
+      <c r="V138" s="185"/>
+      <c r="W138" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="X138" s="186"/>
-      <c r="Y138" s="187"/>
+      <c r="X138" s="184"/>
+      <c r="Y138" s="185"/>
       <c r="Z138" s="96"/>
       <c r="AA138" s="96"/>
       <c r="AB138" s="51"/>
@@ -17339,7 +17834,7 @@
       <c r="AL138" s="118"/>
       <c r="AM138" s="118"/>
     </row>
-    <row r="139" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="139" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="10"/>
@@ -17358,19 +17853,19 @@
       <c r="N139" s="98"/>
       <c r="O139" s="98"/>
       <c r="P139" s="99"/>
-      <c r="Q139" s="185" t="s">
+      <c r="Q139" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="R139" s="186"/>
-      <c r="S139" s="187"/>
-      <c r="T139" s="185"/>
-      <c r="U139" s="186"/>
-      <c r="V139" s="187"/>
-      <c r="W139" s="185" t="s">
+      <c r="R139" s="184"/>
+      <c r="S139" s="185"/>
+      <c r="T139" s="183"/>
+      <c r="U139" s="184"/>
+      <c r="V139" s="185"/>
+      <c r="W139" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="X139" s="186"/>
-      <c r="Y139" s="187"/>
+      <c r="X139" s="184"/>
+      <c r="Y139" s="185"/>
       <c r="Z139" s="96"/>
       <c r="AA139" s="96"/>
       <c r="AB139" s="51"/>
@@ -17386,7 +17881,7 @@
       <c r="AL139" s="118"/>
       <c r="AM139" s="118"/>
     </row>
-    <row r="140" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="140" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="10"/>
@@ -17405,19 +17900,19 @@
       <c r="N140" s="98"/>
       <c r="O140" s="98"/>
       <c r="P140" s="99"/>
-      <c r="Q140" s="185" t="s">
+      <c r="Q140" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="R140" s="186"/>
-      <c r="S140" s="187"/>
-      <c r="T140" s="185"/>
-      <c r="U140" s="186"/>
-      <c r="V140" s="187"/>
-      <c r="W140" s="185" t="s">
+      <c r="R140" s="184"/>
+      <c r="S140" s="185"/>
+      <c r="T140" s="183"/>
+      <c r="U140" s="184"/>
+      <c r="V140" s="185"/>
+      <c r="W140" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="X140" s="186"/>
-      <c r="Y140" s="187"/>
+      <c r="X140" s="184"/>
+      <c r="Y140" s="185"/>
       <c r="Z140" s="96"/>
       <c r="AA140" s="96"/>
       <c r="AB140" s="51"/>
@@ -17433,7 +17928,7 @@
       <c r="AL140" s="118"/>
       <c r="AM140" s="118"/>
     </row>
-    <row r="141" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="141" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="10"/>
@@ -17452,19 +17947,19 @@
       <c r="N141" s="98"/>
       <c r="O141" s="98"/>
       <c r="P141" s="99"/>
-      <c r="Q141" s="185" t="s">
+      <c r="Q141" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="R141" s="186"/>
-      <c r="S141" s="187"/>
-      <c r="T141" s="185" t="s">
+      <c r="R141" s="184"/>
+      <c r="S141" s="185"/>
+      <c r="T141" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="U141" s="186"/>
-      <c r="V141" s="187"/>
-      <c r="W141" s="185"/>
-      <c r="X141" s="186"/>
-      <c r="Y141" s="187"/>
+      <c r="U141" s="184"/>
+      <c r="V141" s="185"/>
+      <c r="W141" s="183"/>
+      <c r="X141" s="184"/>
+      <c r="Y141" s="185"/>
       <c r="Z141" s="96"/>
       <c r="AA141" s="96"/>
       <c r="AB141" s="51"/>
@@ -17480,7 +17975,7 @@
       <c r="AL141" s="118"/>
       <c r="AM141" s="118"/>
     </row>
-    <row r="142" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="142" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="10"/>
@@ -17499,19 +17994,19 @@
       <c r="N142" s="98"/>
       <c r="O142" s="98"/>
       <c r="P142" s="99"/>
-      <c r="Q142" s="185" t="s">
+      <c r="Q142" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="R142" s="186"/>
-      <c r="S142" s="187"/>
-      <c r="T142" s="185"/>
-      <c r="U142" s="186"/>
-      <c r="V142" s="187"/>
-      <c r="W142" s="185" t="s">
+      <c r="R142" s="184"/>
+      <c r="S142" s="185"/>
+      <c r="T142" s="183"/>
+      <c r="U142" s="184"/>
+      <c r="V142" s="185"/>
+      <c r="W142" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="X142" s="186"/>
-      <c r="Y142" s="187"/>
+      <c r="X142" s="184"/>
+      <c r="Y142" s="185"/>
       <c r="Z142" s="96"/>
       <c r="AA142" s="96"/>
       <c r="AB142" s="51"/>
@@ -17527,7 +18022,7 @@
       <c r="AL142" s="118"/>
       <c r="AM142" s="118"/>
     </row>
-    <row r="143" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="143" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="10"/>
@@ -17545,21 +18040,21 @@
       <c r="N143" s="98"/>
       <c r="O143" s="98"/>
       <c r="P143" s="99"/>
-      <c r="Q143" s="185" t="s">
+      <c r="Q143" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="R143" s="186"/>
-      <c r="S143" s="187"/>
-      <c r="T143" s="185" t="s">
+      <c r="R143" s="184"/>
+      <c r="S143" s="185"/>
+      <c r="T143" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="U143" s="186"/>
-      <c r="V143" s="187"/>
-      <c r="W143" s="185" t="s">
+      <c r="U143" s="184"/>
+      <c r="V143" s="185"/>
+      <c r="W143" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="X143" s="186"/>
-      <c r="Y143" s="187"/>
+      <c r="X143" s="184"/>
+      <c r="Y143" s="185"/>
       <c r="Z143" s="96"/>
       <c r="AA143" s="96"/>
       <c r="AB143" s="51"/>
@@ -17571,17 +18066,17 @@
       <c r="AH143" s="123"/>
       <c r="AI143" s="123"/>
       <c r="AJ143" s="123"/>
-      <c r="AK143" s="219"/>
-      <c r="AL143" s="219"/>
-      <c r="AM143" s="219"/>
-      <c r="AN143" s="219"/>
-      <c r="AO143" s="219"/>
-      <c r="AP143" s="219"/>
-      <c r="AQ143" s="219"/>
-      <c r="AR143" s="219"/>
-      <c r="AS143" s="219"/>
-    </row>
-    <row r="144" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1">
+      <c r="AK143" s="178"/>
+      <c r="AL143" s="178"/>
+      <c r="AM143" s="178"/>
+      <c r="AN143" s="178"/>
+      <c r="AO143" s="178"/>
+      <c r="AP143" s="178"/>
+      <c r="AQ143" s="178"/>
+      <c r="AR143" s="178"/>
+      <c r="AS143" s="178"/>
+    </row>
+    <row r="144" spans="1:45" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="10"/>
@@ -17600,21 +18095,21 @@
       <c r="N144" s="98"/>
       <c r="O144" s="98"/>
       <c r="P144" s="99"/>
-      <c r="Q144" s="185" t="s">
+      <c r="Q144" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="R144" s="186"/>
-      <c r="S144" s="187"/>
-      <c r="T144" s="185" t="s">
+      <c r="R144" s="184"/>
+      <c r="S144" s="185"/>
+      <c r="T144" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="U144" s="186"/>
-      <c r="V144" s="187"/>
-      <c r="W144" s="185" t="s">
+      <c r="U144" s="184"/>
+      <c r="V144" s="185"/>
+      <c r="W144" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="X144" s="186"/>
-      <c r="Y144" s="187"/>
+      <c r="X144" s="184"/>
+      <c r="Y144" s="185"/>
       <c r="Z144" s="96"/>
       <c r="AA144" s="96"/>
       <c r="AB144" s="51"/>
@@ -17626,7 +18121,7 @@
       <c r="AH144" s="8"/>
       <c r="AI144" s="8"/>
     </row>
-    <row r="145" spans="1:39" s="117" customFormat="1" ht="24" customHeight="1">
+    <row r="145" spans="1:39" s="117" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="119"/>
       <c r="B145" s="119"/>
       <c r="C145" s="120"/>
@@ -17645,21 +18140,21 @@
       <c r="N145" s="124"/>
       <c r="O145" s="124"/>
       <c r="P145" s="124"/>
-      <c r="Q145" s="185" t="s">
+      <c r="Q145" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="R145" s="186"/>
-      <c r="S145" s="187"/>
-      <c r="T145" s="185" t="s">
+      <c r="R145" s="184"/>
+      <c r="S145" s="185"/>
+      <c r="T145" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="U145" s="186"/>
-      <c r="V145" s="187"/>
-      <c r="W145" s="185" t="s">
+      <c r="U145" s="184"/>
+      <c r="V145" s="185"/>
+      <c r="W145" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="X145" s="186"/>
-      <c r="Y145" s="187"/>
+      <c r="X145" s="184"/>
+      <c r="Y145" s="185"/>
       <c r="Z145" s="123"/>
       <c r="AA145" s="123"/>
       <c r="AB145" s="122"/>
@@ -17671,7 +18166,7 @@
       <c r="AH145" s="119"/>
       <c r="AI145" s="119"/>
     </row>
-    <row r="146" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="146" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="10"/>
@@ -17718,7 +18213,7 @@
       <c r="AL146" s="8"/>
       <c r="AM146" s="8"/>
     </row>
-    <row r="147" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="147" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="10"/>
@@ -17761,7 +18256,7 @@
       <c r="AL147" s="8"/>
       <c r="AM147" s="8"/>
     </row>
-    <row r="148" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="148" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="10" t="s">
@@ -17804,7 +18299,7 @@
       <c r="AL148" s="8"/>
       <c r="AM148" s="8"/>
     </row>
-    <row r="149" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="149" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="10"/>
@@ -17847,7 +18342,7 @@
       <c r="AL149" s="8"/>
       <c r="AM149" s="8"/>
     </row>
-    <row r="150" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="150" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="10" t="s">
@@ -17890,7 +18385,7 @@
       <c r="AL150" s="8"/>
       <c r="AM150" s="8"/>
     </row>
-    <row r="151" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="151" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="10"/>
@@ -17933,7 +18428,7 @@
       <c r="AL151" s="8"/>
       <c r="AM151" s="8"/>
     </row>
-    <row r="152" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="152" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="10"/>
@@ -17976,7 +18471,7 @@
       <c r="AL152" s="8"/>
       <c r="AM152" s="8"/>
     </row>
-    <row r="153" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="153" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="10"/>
@@ -18019,7 +18514,7 @@
       <c r="AL153" s="8"/>
       <c r="AM153" s="8"/>
     </row>
-    <row r="154" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="154" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="92" t="s">
@@ -18064,7 +18559,7 @@
       <c r="AL154" s="8"/>
       <c r="AM154" s="8"/>
     </row>
-    <row r="155" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="155" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="92"/>
@@ -18107,7 +18602,7 @@
       <c r="AL155" s="8"/>
       <c r="AM155" s="8"/>
     </row>
-    <row r="156" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="156" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="10" t="s">
@@ -18150,7 +18645,7 @@
       <c r="AL156" s="8"/>
       <c r="AM156" s="8"/>
     </row>
-    <row r="157" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="157" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="10"/>
@@ -18193,7 +18688,7 @@
       <c r="AL157" s="8"/>
       <c r="AM157" s="8"/>
     </row>
-    <row r="158" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="158" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="10"/>
@@ -18236,7 +18731,7 @@
       <c r="AL158" s="8"/>
       <c r="AM158" s="8"/>
     </row>
-    <row r="159" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="159" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="10"/>
@@ -18279,7 +18774,7 @@
       <c r="AL159" s="8"/>
       <c r="AM159" s="8"/>
     </row>
-    <row r="160" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="160" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="10" t="s">
@@ -18322,7 +18817,7 @@
       <c r="AL160" s="8"/>
       <c r="AM160" s="8"/>
     </row>
-    <row r="161" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="161" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="10"/>
@@ -18330,46 +18825,46 @@
       <c r="E161" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="F161" s="220" t="s">
+      <c r="F161" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="G161" s="220"/>
-      <c r="H161" s="220"/>
-      <c r="I161" s="220"/>
-      <c r="J161" s="220"/>
-      <c r="K161" s="220"/>
-      <c r="L161" s="220"/>
-      <c r="M161" s="220"/>
-      <c r="N161" s="220"/>
-      <c r="O161" s="220"/>
-      <c r="P161" s="220"/>
-      <c r="Q161" s="220"/>
-      <c r="R161" s="220"/>
-      <c r="S161" s="220" t="s">
+      <c r="G161" s="182"/>
+      <c r="H161" s="182"/>
+      <c r="I161" s="182"/>
+      <c r="J161" s="182"/>
+      <c r="K161" s="182"/>
+      <c r="L161" s="182"/>
+      <c r="M161" s="182"/>
+      <c r="N161" s="182"/>
+      <c r="O161" s="182"/>
+      <c r="P161" s="182"/>
+      <c r="Q161" s="182"/>
+      <c r="R161" s="182"/>
+      <c r="S161" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="T161" s="220"/>
-      <c r="U161" s="220"/>
-      <c r="V161" s="220"/>
-      <c r="W161" s="220"/>
-      <c r="X161" s="220"/>
-      <c r="Y161" s="220"/>
-      <c r="Z161" s="220"/>
-      <c r="AA161" s="220"/>
-      <c r="AB161" s="220"/>
-      <c r="AC161" s="220"/>
-      <c r="AD161" s="220"/>
-      <c r="AE161" s="220"/>
-      <c r="AF161" s="220"/>
-      <c r="AG161" s="220"/>
-      <c r="AH161" s="220"/>
-      <c r="AI161" s="220"/>
-      <c r="AJ161" s="220"/>
+      <c r="T161" s="182"/>
+      <c r="U161" s="182"/>
+      <c r="V161" s="182"/>
+      <c r="W161" s="182"/>
+      <c r="X161" s="182"/>
+      <c r="Y161" s="182"/>
+      <c r="Z161" s="182"/>
+      <c r="AA161" s="182"/>
+      <c r="AB161" s="182"/>
+      <c r="AC161" s="182"/>
+      <c r="AD161" s="182"/>
+      <c r="AE161" s="182"/>
+      <c r="AF161" s="182"/>
+      <c r="AG161" s="182"/>
+      <c r="AH161" s="182"/>
+      <c r="AI161" s="182"/>
+      <c r="AJ161" s="182"/>
       <c r="AK161" s="8"/>
       <c r="AL161" s="8"/>
       <c r="AM161" s="8"/>
     </row>
-    <row r="162" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="162" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="10"/>
@@ -18377,46 +18872,46 @@
       <c r="E162" s="108">
         <v>1</v>
       </c>
-      <c r="F162" s="221" t="s">
+      <c r="F162" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="G162" s="221"/>
-      <c r="H162" s="221"/>
-      <c r="I162" s="221"/>
-      <c r="J162" s="221"/>
-      <c r="K162" s="221"/>
-      <c r="L162" s="221"/>
-      <c r="M162" s="221"/>
-      <c r="N162" s="221"/>
-      <c r="O162" s="221"/>
-      <c r="P162" s="221"/>
-      <c r="Q162" s="221"/>
-      <c r="R162" s="221"/>
-      <c r="S162" s="222" t="s">
+      <c r="G162" s="186"/>
+      <c r="H162" s="186"/>
+      <c r="I162" s="186"/>
+      <c r="J162" s="186"/>
+      <c r="K162" s="186"/>
+      <c r="L162" s="186"/>
+      <c r="M162" s="186"/>
+      <c r="N162" s="186"/>
+      <c r="O162" s="186"/>
+      <c r="P162" s="186"/>
+      <c r="Q162" s="186"/>
+      <c r="R162" s="186"/>
+      <c r="S162" s="187" t="s">
         <v>177</v>
       </c>
-      <c r="T162" s="222"/>
-      <c r="U162" s="222"/>
-      <c r="V162" s="222"/>
-      <c r="W162" s="222"/>
-      <c r="X162" s="222"/>
-      <c r="Y162" s="222"/>
-      <c r="Z162" s="222"/>
-      <c r="AA162" s="222"/>
-      <c r="AB162" s="222"/>
-      <c r="AC162" s="222"/>
-      <c r="AD162" s="222"/>
-      <c r="AE162" s="222"/>
-      <c r="AF162" s="222"/>
-      <c r="AG162" s="222"/>
-      <c r="AH162" s="222"/>
-      <c r="AI162" s="222"/>
-      <c r="AJ162" s="222"/>
+      <c r="T162" s="187"/>
+      <c r="U162" s="187"/>
+      <c r="V162" s="187"/>
+      <c r="W162" s="187"/>
+      <c r="X162" s="187"/>
+      <c r="Y162" s="187"/>
+      <c r="Z162" s="187"/>
+      <c r="AA162" s="187"/>
+      <c r="AB162" s="187"/>
+      <c r="AC162" s="187"/>
+      <c r="AD162" s="187"/>
+      <c r="AE162" s="187"/>
+      <c r="AF162" s="187"/>
+      <c r="AG162" s="187"/>
+      <c r="AH162" s="187"/>
+      <c r="AI162" s="187"/>
+      <c r="AJ162" s="187"/>
       <c r="AK162" s="8"/>
       <c r="AL162" s="8"/>
       <c r="AM162" s="8"/>
     </row>
-    <row r="163" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="163" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="10"/>
@@ -18424,46 +18919,46 @@
       <c r="E163" s="108">
         <v>2</v>
       </c>
-      <c r="F163" s="221" t="s">
+      <c r="F163" s="186" t="s">
         <v>176</v>
       </c>
-      <c r="G163" s="221"/>
-      <c r="H163" s="221"/>
-      <c r="I163" s="221"/>
-      <c r="J163" s="221"/>
-      <c r="K163" s="221"/>
-      <c r="L163" s="221"/>
-      <c r="M163" s="221"/>
-      <c r="N163" s="221"/>
-      <c r="O163" s="221"/>
-      <c r="P163" s="221"/>
-      <c r="Q163" s="221"/>
-      <c r="R163" s="221"/>
-      <c r="S163" s="222" t="s">
+      <c r="G163" s="186"/>
+      <c r="H163" s="186"/>
+      <c r="I163" s="186"/>
+      <c r="J163" s="186"/>
+      <c r="K163" s="186"/>
+      <c r="L163" s="186"/>
+      <c r="M163" s="186"/>
+      <c r="N163" s="186"/>
+      <c r="O163" s="186"/>
+      <c r="P163" s="186"/>
+      <c r="Q163" s="186"/>
+      <c r="R163" s="186"/>
+      <c r="S163" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="T163" s="223"/>
-      <c r="U163" s="223"/>
-      <c r="V163" s="223"/>
-      <c r="W163" s="223"/>
-      <c r="X163" s="223"/>
-      <c r="Y163" s="223"/>
-      <c r="Z163" s="223"/>
-      <c r="AA163" s="223"/>
-      <c r="AB163" s="223"/>
-      <c r="AC163" s="223"/>
-      <c r="AD163" s="223"/>
-      <c r="AE163" s="223"/>
-      <c r="AF163" s="223"/>
-      <c r="AG163" s="223"/>
-      <c r="AH163" s="223"/>
-      <c r="AI163" s="223"/>
-      <c r="AJ163" s="223"/>
+      <c r="T163" s="188"/>
+      <c r="U163" s="188"/>
+      <c r="V163" s="188"/>
+      <c r="W163" s="188"/>
+      <c r="X163" s="188"/>
+      <c r="Y163" s="188"/>
+      <c r="Z163" s="188"/>
+      <c r="AA163" s="188"/>
+      <c r="AB163" s="188"/>
+      <c r="AC163" s="188"/>
+      <c r="AD163" s="188"/>
+      <c r="AE163" s="188"/>
+      <c r="AF163" s="188"/>
+      <c r="AG163" s="188"/>
+      <c r="AH163" s="188"/>
+      <c r="AI163" s="188"/>
+      <c r="AJ163" s="188"/>
       <c r="AK163" s="8"/>
       <c r="AL163" s="8"/>
       <c r="AM163" s="8"/>
     </row>
-    <row r="164" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="164" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="10"/>
@@ -18471,46 +18966,46 @@
       <c r="E164" s="108">
         <v>3</v>
       </c>
-      <c r="F164" s="221" t="s">
+      <c r="F164" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="G164" s="221"/>
-      <c r="H164" s="221"/>
-      <c r="I164" s="221"/>
-      <c r="J164" s="221"/>
-      <c r="K164" s="221"/>
-      <c r="L164" s="221"/>
-      <c r="M164" s="221"/>
-      <c r="N164" s="221"/>
-      <c r="O164" s="221"/>
-      <c r="P164" s="221"/>
-      <c r="Q164" s="221"/>
-      <c r="R164" s="221"/>
-      <c r="S164" s="224" t="s">
+      <c r="G164" s="186"/>
+      <c r="H164" s="186"/>
+      <c r="I164" s="186"/>
+      <c r="J164" s="186"/>
+      <c r="K164" s="186"/>
+      <c r="L164" s="186"/>
+      <c r="M164" s="186"/>
+      <c r="N164" s="186"/>
+      <c r="O164" s="186"/>
+      <c r="P164" s="186"/>
+      <c r="Q164" s="186"/>
+      <c r="R164" s="186"/>
+      <c r="S164" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="T164" s="225"/>
-      <c r="U164" s="225"/>
-      <c r="V164" s="225"/>
-      <c r="W164" s="225"/>
-      <c r="X164" s="225"/>
-      <c r="Y164" s="225"/>
-      <c r="Z164" s="225"/>
-      <c r="AA164" s="225"/>
-      <c r="AB164" s="225"/>
-      <c r="AC164" s="225"/>
-      <c r="AD164" s="225"/>
-      <c r="AE164" s="225"/>
-      <c r="AF164" s="225"/>
-      <c r="AG164" s="225"/>
-      <c r="AH164" s="225"/>
-      <c r="AI164" s="225"/>
-      <c r="AJ164" s="226"/>
+      <c r="T164" s="190"/>
+      <c r="U164" s="190"/>
+      <c r="V164" s="190"/>
+      <c r="W164" s="190"/>
+      <c r="X164" s="190"/>
+      <c r="Y164" s="190"/>
+      <c r="Z164" s="190"/>
+      <c r="AA164" s="190"/>
+      <c r="AB164" s="190"/>
+      <c r="AC164" s="190"/>
+      <c r="AD164" s="190"/>
+      <c r="AE164" s="190"/>
+      <c r="AF164" s="190"/>
+      <c r="AG164" s="190"/>
+      <c r="AH164" s="190"/>
+      <c r="AI164" s="190"/>
+      <c r="AJ164" s="191"/>
       <c r="AK164" s="8"/>
       <c r="AL164" s="8"/>
       <c r="AM164" s="8"/>
     </row>
-    <row r="165" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="165" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="92" t="s">
@@ -18555,7 +19050,7 @@
       <c r="AL165" s="8"/>
       <c r="AM165" s="8"/>
     </row>
-    <row r="166" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="166" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="106"/>
@@ -18598,7 +19093,7 @@
       <c r="AL166" s="8"/>
       <c r="AM166" s="8"/>
     </row>
-    <row r="167" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="167" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="10" t="s">
@@ -18641,7 +19136,7 @@
       <c r="AL167" s="8"/>
       <c r="AM167" s="8"/>
     </row>
-    <row r="168" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="168" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="106"/>
@@ -18682,7 +19177,7 @@
       <c r="AL168" s="8"/>
       <c r="AM168" s="8"/>
     </row>
-    <row r="169" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="169" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="106"/>
@@ -18723,7 +19218,7 @@
       <c r="AL169" s="8"/>
       <c r="AM169" s="8"/>
     </row>
-    <row r="170" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="170" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="106"/>
@@ -18764,7 +19259,7 @@
       <c r="AL170" s="8"/>
       <c r="AM170" s="8"/>
     </row>
-    <row r="171" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="171" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="106"/>
@@ -18805,7 +19300,7 @@
       <c r="AL171" s="8"/>
       <c r="AM171" s="8"/>
     </row>
-    <row r="172" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="172" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="10"/>
@@ -18846,7 +19341,7 @@
       <c r="AL172" s="8"/>
       <c r="AM172" s="8"/>
     </row>
-    <row r="173" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="173" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="106"/>
@@ -18887,7 +19382,7 @@
       <c r="AL173" s="8"/>
       <c r="AM173" s="8"/>
     </row>
-    <row r="174" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="174" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="106"/>
@@ -18928,7 +19423,7 @@
       <c r="AL174" s="8"/>
       <c r="AM174" s="8"/>
     </row>
-    <row r="175" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="175" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="106"/>
@@ -18969,7 +19464,7 @@
       <c r="AL175" s="8"/>
       <c r="AM175" s="8"/>
     </row>
-    <row r="176" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="176" spans="1:39" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="106"/>
@@ -19010,7 +19505,7 @@
       <c r="AL176" s="8"/>
       <c r="AM176" s="8"/>
     </row>
-    <row r="177" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="177" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="8"/>
       <c r="B177" s="119"/>
       <c r="C177" s="120" t="s">
@@ -19053,32 +19548,32 @@
       <c r="AL177" s="8"/>
       <c r="AM177" s="8"/>
     </row>
-    <row r="178" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="178" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="8"/>
       <c r="B178" s="119"/>
       <c r="C178" s="120"/>
-      <c r="D178" s="210" t="s">
+      <c r="D178" s="195" t="s">
         <v>201</v>
       </c>
-      <c r="E178" s="211"/>
-      <c r="F178" s="211"/>
-      <c r="G178" s="211"/>
-      <c r="H178" s="211"/>
-      <c r="I178" s="211"/>
-      <c r="J178" s="212"/>
-      <c r="K178" s="188" t="s">
+      <c r="E178" s="196"/>
+      <c r="F178" s="196"/>
+      <c r="G178" s="196"/>
+      <c r="H178" s="196"/>
+      <c r="I178" s="196"/>
+      <c r="J178" s="197"/>
+      <c r="K178" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="L178" s="189"/>
-      <c r="M178" s="189"/>
-      <c r="N178" s="189"/>
-      <c r="O178" s="189"/>
-      <c r="P178" s="190"/>
-      <c r="Q178" s="210" t="s">
+      <c r="L178" s="193"/>
+      <c r="M178" s="193"/>
+      <c r="N178" s="193"/>
+      <c r="O178" s="193"/>
+      <c r="P178" s="194"/>
+      <c r="Q178" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="R178" s="211"/>
-      <c r="S178" s="212"/>
+      <c r="R178" s="196"/>
+      <c r="S178" s="197"/>
       <c r="T178" s="122"/>
       <c r="U178" s="122"/>
       <c r="V178" s="122"/>
@@ -19101,30 +19596,30 @@
       <c r="AM178" s="8"/>
       <c r="AO178" s="117"/>
     </row>
-    <row r="179" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="179" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="8"/>
       <c r="B179" s="119"/>
       <c r="C179" s="120"/>
-      <c r="D179" s="213"/>
-      <c r="E179" s="214"/>
-      <c r="F179" s="214"/>
-      <c r="G179" s="214"/>
-      <c r="H179" s="214"/>
-      <c r="I179" s="214"/>
-      <c r="J179" s="215"/>
-      <c r="K179" s="188" t="s">
+      <c r="D179" s="198"/>
+      <c r="E179" s="199"/>
+      <c r="F179" s="199"/>
+      <c r="G179" s="199"/>
+      <c r="H179" s="199"/>
+      <c r="I179" s="199"/>
+      <c r="J179" s="200"/>
+      <c r="K179" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="L179" s="189"/>
-      <c r="M179" s="190"/>
-      <c r="N179" s="188" t="s">
+      <c r="L179" s="193"/>
+      <c r="M179" s="194"/>
+      <c r="N179" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="O179" s="189"/>
-      <c r="P179" s="190"/>
-      <c r="Q179" s="213"/>
-      <c r="R179" s="214"/>
-      <c r="S179" s="215"/>
+      <c r="O179" s="193"/>
+      <c r="P179" s="194"/>
+      <c r="Q179" s="198"/>
+      <c r="R179" s="199"/>
+      <c r="S179" s="200"/>
       <c r="T179" s="122"/>
       <c r="U179" s="122"/>
       <c r="V179" s="122"/>
@@ -19146,7 +19641,7 @@
       <c r="AL179" s="8"/>
       <c r="AM179" s="8"/>
     </row>
-    <row r="180" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="180" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="8"/>
       <c r="B180" s="119"/>
       <c r="C180" s="120"/>
@@ -19159,21 +19654,21 @@
       <c r="H180" s="145"/>
       <c r="I180" s="145"/>
       <c r="J180" s="146"/>
-      <c r="K180" s="216" t="s">
+      <c r="K180" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="L180" s="217"/>
-      <c r="M180" s="218"/>
-      <c r="N180" s="216" t="s">
+      <c r="L180" s="180"/>
+      <c r="M180" s="181"/>
+      <c r="N180" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="O180" s="217"/>
-      <c r="P180" s="218"/>
-      <c r="Q180" s="216" t="s">
+      <c r="O180" s="180"/>
+      <c r="P180" s="181"/>
+      <c r="Q180" s="179" t="s">
         <v>198</v>
       </c>
-      <c r="R180" s="217"/>
-      <c r="S180" s="218"/>
+      <c r="R180" s="180"/>
+      <c r="S180" s="181"/>
       <c r="T180" s="122"/>
       <c r="U180" s="144" t="s">
         <v>27</v>
@@ -19201,7 +19696,7 @@
       <c r="AL180" s="8"/>
       <c r="AM180" s="8"/>
     </row>
-    <row r="181" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="181" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="8"/>
       <c r="B181" s="119"/>
       <c r="C181" s="120"/>
@@ -19214,19 +19709,19 @@
       <c r="H181" s="145"/>
       <c r="I181" s="145"/>
       <c r="J181" s="146"/>
-      <c r="K181" s="216" t="s">
+      <c r="K181" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="L181" s="217"/>
-      <c r="M181" s="218"/>
-      <c r="N181" s="216"/>
-      <c r="O181" s="217"/>
-      <c r="P181" s="218"/>
-      <c r="Q181" s="216" t="s">
+      <c r="L181" s="180"/>
+      <c r="M181" s="181"/>
+      <c r="N181" s="179"/>
+      <c r="O181" s="180"/>
+      <c r="P181" s="181"/>
+      <c r="Q181" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="R181" s="217"/>
-      <c r="S181" s="218"/>
+      <c r="R181" s="180"/>
+      <c r="S181" s="181"/>
       <c r="T181" s="122"/>
       <c r="U181" s="144"/>
       <c r="V181" s="144"/>
@@ -19250,7 +19745,7 @@
       <c r="AL181" s="8"/>
       <c r="AM181" s="8"/>
     </row>
-    <row r="182" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="182" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="8"/>
       <c r="B182" s="119"/>
       <c r="C182" s="120"/>
@@ -19263,19 +19758,19 @@
       <c r="H182" s="145"/>
       <c r="I182" s="145"/>
       <c r="J182" s="146"/>
-      <c r="K182" s="216" t="s">
+      <c r="K182" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="L182" s="217"/>
-      <c r="M182" s="218"/>
-      <c r="N182" s="216"/>
-      <c r="O182" s="217"/>
-      <c r="P182" s="218"/>
-      <c r="Q182" s="216" t="s">
+      <c r="L182" s="180"/>
+      <c r="M182" s="181"/>
+      <c r="N182" s="179"/>
+      <c r="O182" s="180"/>
+      <c r="P182" s="181"/>
+      <c r="Q182" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="R182" s="217"/>
-      <c r="S182" s="218"/>
+      <c r="R182" s="180"/>
+      <c r="S182" s="181"/>
       <c r="T182" s="122"/>
       <c r="U182" s="122"/>
       <c r="V182" s="122"/>
@@ -19297,7 +19792,7 @@
       <c r="AL182" s="8"/>
       <c r="AM182" s="8"/>
     </row>
-    <row r="183" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="183" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="8"/>
       <c r="B183" s="119"/>
       <c r="C183" s="120"/>
@@ -19310,19 +19805,19 @@
       <c r="H183" s="145"/>
       <c r="I183" s="145"/>
       <c r="J183" s="146"/>
-      <c r="K183" s="216" t="s">
+      <c r="K183" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="L183" s="217"/>
-      <c r="M183" s="218"/>
-      <c r="N183" s="216" t="s">
+      <c r="L183" s="180"/>
+      <c r="M183" s="181"/>
+      <c r="N183" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="O183" s="217"/>
-      <c r="P183" s="218"/>
-      <c r="Q183" s="216"/>
-      <c r="R183" s="217"/>
-      <c r="S183" s="218"/>
+      <c r="O183" s="180"/>
+      <c r="P183" s="181"/>
+      <c r="Q183" s="179"/>
+      <c r="R183" s="180"/>
+      <c r="S183" s="181"/>
       <c r="T183" s="122"/>
       <c r="U183" s="122"/>
       <c r="V183" s="122"/>
@@ -19344,7 +19839,7 @@
       <c r="AL183" s="8"/>
       <c r="AM183" s="8"/>
     </row>
-    <row r="184" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="184" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="8"/>
       <c r="B184" s="119"/>
       <c r="C184" s="120"/>
@@ -19357,19 +19852,19 @@
       <c r="H184" s="111"/>
       <c r="I184" s="109"/>
       <c r="J184" s="110"/>
-      <c r="K184" s="216" t="s">
+      <c r="K184" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="L184" s="217"/>
-      <c r="M184" s="218"/>
-      <c r="N184" s="216"/>
-      <c r="O184" s="217"/>
-      <c r="P184" s="218"/>
-      <c r="Q184" s="216" t="s">
+      <c r="L184" s="180"/>
+      <c r="M184" s="181"/>
+      <c r="N184" s="179"/>
+      <c r="O184" s="180"/>
+      <c r="P184" s="181"/>
+      <c r="Q184" s="179" t="s">
         <v>198</v>
       </c>
-      <c r="R184" s="217"/>
-      <c r="S184" s="218"/>
+      <c r="R184" s="180"/>
+      <c r="S184" s="181"/>
       <c r="T184" s="122"/>
       <c r="U184" s="122"/>
       <c r="V184" s="122"/>
@@ -19391,12 +19886,12 @@
       <c r="AL184" s="8"/>
       <c r="AM184" s="8"/>
     </row>
-    <row r="185" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="185" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="8"/>
       <c r="B185" s="119"/>
       <c r="C185" s="120"/>
       <c r="D185" s="121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E185" s="144"/>
       <c r="F185" s="144"/>
@@ -19434,7 +19929,7 @@
       <c r="AL185" s="8"/>
       <c r="AM185" s="8"/>
     </row>
-    <row r="186" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1">
+    <row r="186" spans="1:41" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="8"/>
       <c r="B186" s="119"/>
       <c r="C186" s="120"/>
@@ -19475,7 +19970,7 @@
       <c r="AL186" s="8"/>
       <c r="AM186" s="8"/>
     </row>
-    <row r="187" spans="1:41" s="5" customFormat="1" ht="13.5" customHeight="1">
+    <row r="187" spans="1:41" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="117"/>
       <c r="C187" s="18"/>
       <c r="D187" s="19"/>
@@ -19515,7 +20010,7 @@
       <c r="AL187" s="21"/>
       <c r="AM187" s="21"/>
     </row>
-    <row r="188" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="188" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="117"/>
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
@@ -19555,7 +20050,7 @@
       <c r="AL188" s="23"/>
       <c r="AM188" s="23"/>
     </row>
-    <row r="189" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="189" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="22"/>
@@ -19596,7 +20091,7 @@
       <c r="AL189" s="25"/>
       <c r="AM189" s="25"/>
     </row>
-    <row r="190" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1">
+    <row r="190" spans="1:41" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="26"/>
@@ -19637,7 +20132,7 @@
       <c r="AL190" s="23"/>
       <c r="AM190" s="23"/>
     </row>
-    <row r="191" spans="1:41" ht="12" customHeight="1">
+    <row r="191" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
       <c r="E191" s="26"/>
@@ -19654,7 +20149,7 @@
       <c r="P191" s="26"/>
       <c r="Q191" s="26"/>
     </row>
-    <row r="192" spans="1:41" ht="12" customHeight="1">
+    <row r="192" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C192" s="27"/>
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
@@ -19671,7 +20166,7 @@
       <c r="P192" s="26"/>
       <c r="Q192" s="26"/>
     </row>
-    <row r="193" spans="3:17" ht="12" customHeight="1">
+    <row r="193" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="27"/>
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
@@ -19688,7 +20183,7 @@
       <c r="P193" s="26"/>
       <c r="Q193" s="26"/>
     </row>
-    <row r="194" spans="3:17" ht="12" customHeight="1">
+    <row r="194" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
@@ -19705,7 +20200,7 @@
       <c r="P194" s="26"/>
       <c r="Q194" s="26"/>
     </row>
-    <row r="195" spans="3:17" ht="12" customHeight="1">
+    <row r="195" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
       <c r="E195" s="26"/>
@@ -19724,54 +20219,113 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AK143:AM143"/>
-    <mergeCell ref="AN143:AP143"/>
-    <mergeCell ref="AQ143:AS143"/>
-    <mergeCell ref="K182:M182"/>
-    <mergeCell ref="N182:P182"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="F161:R161"/>
-    <mergeCell ref="S161:AJ161"/>
-    <mergeCell ref="Q143:S143"/>
-    <mergeCell ref="T143:V143"/>
-    <mergeCell ref="W143:Y143"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:V144"/>
-    <mergeCell ref="W144:Y144"/>
-    <mergeCell ref="F162:R162"/>
-    <mergeCell ref="F163:R163"/>
-    <mergeCell ref="F164:R164"/>
-    <mergeCell ref="S162:AJ162"/>
-    <mergeCell ref="S163:AJ163"/>
-    <mergeCell ref="S164:AJ164"/>
-    <mergeCell ref="K183:M183"/>
-    <mergeCell ref="N183:P183"/>
-    <mergeCell ref="Q183:S183"/>
-    <mergeCell ref="K184:M184"/>
-    <mergeCell ref="N184:P184"/>
-    <mergeCell ref="Q184:S184"/>
-    <mergeCell ref="K178:P178"/>
-    <mergeCell ref="Q178:S179"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="N179:P179"/>
-    <mergeCell ref="K180:M180"/>
-    <mergeCell ref="N180:P180"/>
-    <mergeCell ref="Q180:S180"/>
-    <mergeCell ref="K181:M181"/>
-    <mergeCell ref="N181:P181"/>
-    <mergeCell ref="Q181:S181"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="Q135:S135"/>
-    <mergeCell ref="T135:V135"/>
-    <mergeCell ref="W142:Y142"/>
-    <mergeCell ref="Q142:S142"/>
-    <mergeCell ref="T142:V142"/>
-    <mergeCell ref="D178:J179"/>
-    <mergeCell ref="Q145:S145"/>
-    <mergeCell ref="T145:V145"/>
-    <mergeCell ref="W145:Y145"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E134:P135"/>
+    <mergeCell ref="W136:Y136"/>
+    <mergeCell ref="W137:Y137"/>
+    <mergeCell ref="W138:Y138"/>
+    <mergeCell ref="W139:Y139"/>
+    <mergeCell ref="W140:Y140"/>
+    <mergeCell ref="W141:Y141"/>
+    <mergeCell ref="W134:Y135"/>
+    <mergeCell ref="Q136:S136"/>
+    <mergeCell ref="T136:V136"/>
+    <mergeCell ref="Q137:S137"/>
+    <mergeCell ref="T137:V137"/>
+    <mergeCell ref="Q141:S141"/>
+    <mergeCell ref="T141:V141"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="T138:V138"/>
+    <mergeCell ref="Q139:S139"/>
+    <mergeCell ref="T139:V139"/>
+    <mergeCell ref="Q140:S140"/>
+    <mergeCell ref="T140:V140"/>
+    <mergeCell ref="Q134:V134"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="N48:AH48"/>
+    <mergeCell ref="I49:AB49"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="O50:Z50"/>
+    <mergeCell ref="AA50:AH50"/>
+    <mergeCell ref="AC49:AH49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="N36:AH36"/>
+    <mergeCell ref="I37:AB37"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="O38:AH38"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="AK16:AL16"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="W16:X16"/>
@@ -19796,118 +20350,59 @@
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="N48:AH48"/>
-    <mergeCell ref="I49:AB49"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="O50:Z50"/>
-    <mergeCell ref="AA50:AH50"/>
-    <mergeCell ref="AC49:AH49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="N36:AH36"/>
-    <mergeCell ref="I37:AB37"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="O38:AH38"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E134:P135"/>
-    <mergeCell ref="W136:Y136"/>
-    <mergeCell ref="W137:Y137"/>
-    <mergeCell ref="W138:Y138"/>
-    <mergeCell ref="W139:Y139"/>
-    <mergeCell ref="W140:Y140"/>
-    <mergeCell ref="W141:Y141"/>
-    <mergeCell ref="W134:Y135"/>
-    <mergeCell ref="Q136:S136"/>
-    <mergeCell ref="T136:V136"/>
-    <mergeCell ref="Q137:S137"/>
-    <mergeCell ref="T137:V137"/>
-    <mergeCell ref="Q141:S141"/>
-    <mergeCell ref="T141:V141"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="T138:V138"/>
-    <mergeCell ref="Q139:S139"/>
-    <mergeCell ref="T139:V139"/>
-    <mergeCell ref="Q140:S140"/>
-    <mergeCell ref="T140:V140"/>
-    <mergeCell ref="Q134:V134"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="Q135:S135"/>
+    <mergeCell ref="T135:V135"/>
+    <mergeCell ref="W142:Y142"/>
+    <mergeCell ref="Q142:S142"/>
+    <mergeCell ref="T142:V142"/>
+    <mergeCell ref="D178:J179"/>
+    <mergeCell ref="Q145:S145"/>
+    <mergeCell ref="T145:V145"/>
+    <mergeCell ref="W145:Y145"/>
+    <mergeCell ref="K183:M183"/>
+    <mergeCell ref="N183:P183"/>
+    <mergeCell ref="Q183:S183"/>
+    <mergeCell ref="K184:M184"/>
+    <mergeCell ref="N184:P184"/>
+    <mergeCell ref="Q184:S184"/>
+    <mergeCell ref="K178:P178"/>
+    <mergeCell ref="Q178:S179"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="N179:P179"/>
+    <mergeCell ref="K180:M180"/>
+    <mergeCell ref="N180:P180"/>
+    <mergeCell ref="Q180:S180"/>
+    <mergeCell ref="K181:M181"/>
+    <mergeCell ref="N181:P181"/>
+    <mergeCell ref="Q181:S181"/>
+    <mergeCell ref="AK143:AM143"/>
+    <mergeCell ref="AN143:AP143"/>
+    <mergeCell ref="AQ143:AS143"/>
+    <mergeCell ref="K182:M182"/>
+    <mergeCell ref="N182:P182"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="F161:R161"/>
+    <mergeCell ref="S161:AJ161"/>
+    <mergeCell ref="Q143:S143"/>
+    <mergeCell ref="T143:V143"/>
+    <mergeCell ref="W143:Y143"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:V144"/>
+    <mergeCell ref="W144:Y144"/>
+    <mergeCell ref="F162:R162"/>
+    <mergeCell ref="F163:R163"/>
+    <mergeCell ref="F164:R164"/>
+    <mergeCell ref="S162:AJ162"/>
+    <mergeCell ref="S163:AJ163"/>
+    <mergeCell ref="S164:AJ164"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;10－&amp;P－</oddFooter>
   </headerFooter>
